--- a/Progresos/Hitos importantes.xlsx
+++ b/Progresos/Hitos importantes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Objetivo del documento: </t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Fecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entendí cómo se ampliaban las opciones en la cadena. Si no encuentro un strike específico, ponerle ALL para que me muestre todo. Ahí ya me va a salir todo. </t>
   </si>
 </sst>
 </file>
@@ -361,7 +364,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -369,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,10 +412,21 @@
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>43989</v>
+        <v>44018</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44049</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Progresos/Hitos importantes.xlsx
+++ b/Progresos/Hitos importantes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">Objetivo del documento: </t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t xml:space="preserve">Entendí cómo se ampliaban las opciones en la cadena. Si no encuentro un strike específico, ponerle ALL para que me muestre todo. Ahí ya me va a salir todo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leí sobre Transferwise. Genial está. Probablemente de ahí podré transferir fondos y recibir mis ganancias de TradeStation. Y de Zulutrade en Skrill. Y después, todo a Payoneer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vi que no me ejecutó cierta orden de BPCS de TSLA. Mary me dijo que podría ser por mi nivel 1 en TS. Tengo que ver para aumentar sus fondos. </t>
   </si>
 </sst>
 </file>
@@ -364,7 +373,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -372,14 +381,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="174.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -429,6 +439,27 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>44080</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>44110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Progresos/Hitos importantes.xlsx
+++ b/Progresos/Hitos importantes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">Objetivo del documento: </t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t xml:space="preserve">Vi que no me ejecutó cierta orden de BPCS de TSLA. Mary me dijo que podría ser por mi nivel 1 en TS. Tengo que ver para aumentar sus fondos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fondeo y activación de cuenta de Tradestation con 500 USD. Vía transferencia Banco Itaú. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primera operación en opciones. Bien o mal, pero figura en el historial. </t>
+  </si>
+  <si>
+    <t>27/04/2020</t>
+  </si>
+  <si>
+    <t>29/04/2020</t>
   </si>
 </sst>
 </file>
@@ -95,12 +107,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,7 +388,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -381,15 +396,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="174.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -418,45 +433,63 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B7" s="2">
         <v>44018</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>2</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B8" s="2">
         <v>44049</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
         <v>44080</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
         <v>44110</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Progresos/Hitos importantes.xlsx
+++ b/Progresos/Hitos importantes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Objetivo del documento: </t>
   </si>
@@ -45,9 +45,6 @@
     <t xml:space="preserve">Entendí cómo se ampliaban las opciones en la cadena. Si no encuentro un strike específico, ponerle ALL para que me muestre todo. Ahí ya me va a salir todo. </t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Leí sobre Transferwise. Genial está. Probablemente de ahí podré transferir fondos y recibir mis ganancias de TradeStation. Y de Zulutrade en Skrill. Y después, todo a Payoneer. </t>
   </si>
   <si>
@@ -64,6 +61,18 @@
   </si>
   <si>
     <t>29/04/2020</t>
+  </si>
+  <si>
+    <t>19/06/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pude entender la trazabilidad del balance de mis primeras operaciones que he realizado en el mercado de opciones. </t>
+  </si>
+  <si>
+    <t>18/06/2020</t>
+  </si>
+  <si>
+    <t>Vi que tengo en Demo Nivel 5, Cuenta Margin. Y en real Nivel 1 Cuenta Margin</t>
   </si>
 </sst>
 </file>
@@ -388,7 +397,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -396,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,19 +444,19 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -477,7 +486,7 @@
         <v>44080</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -485,12 +494,23 @@
         <v>44110</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Progresos/Hitos importantes.xlsx
+++ b/Progresos/Hitos importantes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Objetivo del documento: </t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>Vi que tengo en Demo Nivel 5, Cuenta Margin. Y en real Nivel 1 Cuenta Margin</t>
+  </si>
+  <si>
+    <t>24/06/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoy pude abrir varias operaciones después de mucho. Entendí el tema del GTC y del Duration Day es algo muy relevante, si abro una Long call Day y no me llena, la orden expira al final del día. </t>
+  </si>
+  <si>
+    <t>23/06/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece que finalmente ya no podré transferir dinero con Transferwise. Al menos ya no me dejó transferir ni 100 ni 500 USD. </t>
   </si>
 </sst>
 </file>
@@ -397,7 +409,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -405,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,6 +525,22 @@
         <v>15</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Progresos/Hitos importantes.xlsx
+++ b/Progresos/Hitos importantes.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">Objetivo del documento: </t>
   </si>
@@ -31,22 +30,22 @@
     <t xml:space="preserve">La idea es ir anotando a partir de hoy todo, incluso la parte emocional, análisis, nuevos enfoques. </t>
   </si>
   <si>
-    <t xml:space="preserve">N°</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción del Hito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27/04/2020</t>
+    <t>N°</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Descripción del Hito</t>
+  </si>
+  <si>
+    <t>27/04/2020</t>
   </si>
   <si>
     <t xml:space="preserve">Fondeo y activación de cuenta de Tradestation con 500 USD. Vía transferencia Banco Itaú. </t>
   </si>
   <si>
-    <t xml:space="preserve">29/04/2020</t>
+    <t>29/04/2020</t>
   </si>
   <si>
     <t xml:space="preserve">Primera operación en opciones. Bien o mal, pero figura en el historial. </t>
@@ -64,45 +63,71 @@
     <t xml:space="preserve">Leí sobre Transferwise. Genial está. Probablemente de ahí podré transferir fondos y recibir mis ganancias de TradeStation. Y de Zulutrade en Skrill. Y después, todo a Payoneer. </t>
   </si>
   <si>
-    <t xml:space="preserve">18/06/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vi que tengo en Demo Nivel 5, Cuenta Margin. Y en real Nivel 1 Cuenta Margin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19/06/2020</t>
+    <t>18/06/2020</t>
+  </si>
+  <si>
+    <t>Vi que tengo en Demo Nivel 5, Cuenta Margin. Y en real Nivel 1 Cuenta Margin</t>
+  </si>
+  <si>
+    <t>19/06/2020</t>
   </si>
   <si>
     <t xml:space="preserve">Pude entender la trazabilidad del balance de mis primeras operaciones que he realizado en el mercado de opciones. </t>
   </si>
   <si>
-    <t xml:space="preserve">23/06/2020</t>
+    <t>23/06/2020</t>
   </si>
   <si>
     <t xml:space="preserve">Parece que finalmente ya no podré transferir dinero con Transferwise. Al menos ya no me dejó transferir ni 100 ni 500 USD. </t>
   </si>
   <si>
-    <t xml:space="preserve">24/06/2020</t>
+    <t>24/06/2020</t>
   </si>
   <si>
     <t xml:space="preserve">Hoy pude abrir varias operaciones después de mucho. Entendí el tema del GTC y del Duration Day es algo muy relevante, si abro una Long call Day y no me llena, la orden expira al final del día. </t>
   </si>
   <si>
-    <t xml:space="preserve">25/06/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este día pude comenzar a completar las bitácoras. Me di cuenta que en el nombre del contrato está el strike con el que se operó, concatenado.</t>
+    <t>25/06/2020</t>
+  </si>
+  <si>
+    <t>En este día pude comenzar a completar las bitácoras. Me di cuenta que en el nombre del contrato está el strike con el que se operó, concatenado.</t>
+  </si>
+  <si>
+    <t>30/06/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirza dijo que sería mejor aplicarle precio NATURAL cuando estamos en demo, y MID cuando estamos en real, para que llene rápido. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me di cuenta que la pestaña "Average price" nos da alguna información. Coincide con lo que yo buscaba, y es el precio de entrada o cierre de las operaciones. </t>
+  </si>
+  <si>
+    <t>22/04/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hablé con Lucho de Soy Rico y me habilitaron para poder inscribirme a través de ellos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He visto que va a ser mejor la planilla excel para la bitácora que el de Calculo de Google. Aunque este último no tiene espacio. Y me quedo con ese porque me convenció eso de horas de vuelo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">También he visto que se puede copiar y pegar tanto desde Tradestation a Excel como Hoja de Calculo de Google. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoy aprendí algo importantísimo. Las velas Renko. Es fuera del tiempo. Sólo importa más el precio. Se forman como cajas o ladrillos. Es más elegante. Es más claro para ver las señales, ya que filtra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mucho ruido. Pero la clave está en ver el tamaño en pips de las cajas. Para que nos ayude y no nos dé muchas señales falsas. Se puede ver en el PEDEM. Hay que configurar días y tamaño. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -111,27 +136,18 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,7 +159,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -151,97 +167,355 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="174.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="9.14"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125"/>
+    <col min="3" max="3" width="174.85546875" customWidth="1"/>
+    <col min="4" max="1025" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -252,179 +526,213 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B8" s="2">
         <v>44018</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B9" s="2">
         <v>44049</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B10" s="2">
         <v>44080</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>6</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B11" s="2">
         <v>44110</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>7</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>8</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>9</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>10</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>11</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="B17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="B18" s="5">
+        <v>43837</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="B19" s="5">
+        <v>43897</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="B21" s="5">
+        <v>43989</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>18</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>19</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Progresos/Hitos importantes.xlsx
+++ b/Progresos/Hitos importantes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t xml:space="preserve">Objetivo del documento: </t>
   </si>
@@ -118,6 +118,42 @@
   </si>
   <si>
     <t xml:space="preserve">mucho ruido. Pero la clave está en ver el tamaño en pips de las cajas. Para que nos ayude y no nos dé muchas señales falsas. Se puede ver en el PEDEM. Hay que configurar días y tamaño. </t>
+  </si>
+  <si>
+    <t>Decidí retirar todo mi capital de AAAFX. Concluí que, aunque hay esperanzas de ganar dinero, me va a hacer perder el foco, como años anteriores, 2018 y 2019. La idea es que una vez que algún ingreso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pueda tener desde TS, voy a invertir en las otras formas de Ingresos. Pero preferentemente en ICMarkets. </t>
+  </si>
+  <si>
+    <t>13/07/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He visto que el Spread se cierra poniendo una operación encima de la otra. No de la manera que hice. Y me gustó la explicación de un tipo de ingresarios. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El cierre con Limit sería Take Profit en Forex. Cierre con Market sería que cierre a precio de mercado (cuando encuentre un contrato a llenar) y también con ese está abierta cerrar con Activation Rule. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El stop limit sería el stop loss poniendo el precio mid o el natural, el que nos llene más rápido. También se puede poner con Activation Rule pero puede ser que nunca nos llene. Y el último está stop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">market que ese sí, por el momento, no debo usar. Puse en guardados de Facebook. </t>
+  </si>
+  <si>
+    <t>14/07/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoy abrí mal una operación de BPCS de  TSLA. No entendía si tenía que abrir con Bid o Ask mayor. Ahora sé que tiene sentido que tenemos que comprar barato y vender caro. Por eso es que el precio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bid debe ser mayor al de Ask, es decir, Bid-Ask por lo menos 0.4. O sino, vamos a pagar más caro la comisión. Ese que abrí voy a practicar para poner Stop o que. O algo, reinventar. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inclusive Mirza habla de hacer Short los viernes por la tarde, después del mediodía. Fijarse en SPY, IWM, QQQ. Y probar en demo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sea, asegurarnos de que el precio no llegue a cierto strike que elegimos. Y después del mediodía abrir short put, que venza ese mismo viernes. </t>
   </si>
 </sst>
 </file>
@@ -158,7 +194,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -166,27 +202,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,15 +540,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.42578125"/>
     <col min="3" max="3" width="174.85546875" customWidth="1"/>
     <col min="4" max="1025" width="9.140625" customWidth="1"/>
@@ -528,208 +580,892 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="5">
         <v>44018</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="5">
         <v>44049</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="5">
         <v>44080</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="5">
         <v>44110</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="8">
         <v>43837</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="8">
         <v>43897</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="8">
         <v>43989</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="4">
         <v>18</v>
       </c>
+      <c r="B23" s="8">
+        <v>44111</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="4">
         <v>19</v>
       </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="4">
         <v>20</v>
       </c>
+      <c r="B25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Progresos/Hitos importantes.xlsx
+++ b/Progresos/Hitos importantes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t xml:space="preserve">Objetivo del documento: </t>
   </si>
@@ -154,6 +154,24 @@
   </si>
   <si>
     <t xml:space="preserve">O sea, asegurarnos de que el precio no llegue a cierto strike que elegimos. Y después del mediodía abrir short put, que venza ese mismo viernes. </t>
+  </si>
+  <si>
+    <t>15/07/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hice mi primera operación de cierre de spreads uniendo las dos filas de Single, un short put con un long put. Con pérdidas pero con aprendizaje. </t>
+  </si>
+  <si>
+    <t>16/07/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me vino a la mente que no me tengo que demasiado apurar en trabajar en real si no entiendo mucho. Es como ese curso de inglés. Primero debo aprender todo muy bien, con lecturas, formaciones, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">práctica deliberada en demo y después en real, volver a las lecturas, etc. Hoy quiero ver todo lo que grabé en el Telegram Router Claro. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">También hoy en el comando me dijeron que es mejor el tema de el gerenciamiento por boxes. No por PYG no sé que. </t>
   </si>
 </sst>
 </file>
@@ -542,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,23 +872,35 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="C36" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>

--- a/Progresos/Hitos importantes.xlsx
+++ b/Progresos/Hitos importantes.xlsx
@@ -7,9 +7,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="General" sheetId="1" r:id="rId1"/>
+    <sheet name="Planeamiento-Formación" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="80">
   <si>
     <t xml:space="preserve">Objetivo del documento: </t>
   </si>
@@ -172,6 +173,93 @@
   </si>
   <si>
     <t xml:space="preserve">También hoy en el comando me dijeron que es mejor el tema de el gerenciamiento por boxes. No por PYG no sé que. </t>
+  </si>
+  <si>
+    <t>19/07/2020</t>
+  </si>
+  <si>
+    <t>Ayer descubrí un truco con las Short Call y Short Put. Primero, después del viernes al mediodía, entrar a ver en la cadena de opciones. Verificar en Call o Put los strikes que estén con valores absolutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de delta entre 0.25 a 0.01. Y que tenga su precio Bid mayor a 0.4. Luego analizar la gráfica. No debo confundirme entre delta y el precio bid. </t>
+  </si>
+  <si>
+    <t>20/07/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoy hago el reseteo de mi cuenta en demo. Pondré con 2000 USD. La idea es hasta Finales del mes. Dos semanas. Ó 10 días. Y después ver si empiezo con real. También agregué 240 min con drone. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estaba viendo la explicación de Mirza y según ella no es de sus favoritas el Short. Por eso es que, voy a volver a ver el tema de SPREADs y fijarme en los valores de delta. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoy me inspiré y ya tengo todo para ir organizando mis actividades laborales, familiares, etc. En TRELLO. También se puede descargar una app. </t>
+  </si>
+  <si>
+    <t>21/07/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoy me di cuenta que ya no puedo resetear si es que tengo operaciones abiertas en el TradeStation. También me abrió finalmente dos operaciones, un BPCS y un Long Call. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quise cerrar la long call, pero como no me queda mucho en margen, menos que 100 usd, y el costo de esa operación era mayor a 200 USD me rechazó la operación. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pienso formarme hasta el 18 de diciembre, de manera intensa. Luego, podría ser que ya me considere mentalmente un Trader Profesional y Exitoso. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voy a tener 3 etapas: Sólo Demo, Demo+real, Real. </t>
+  </si>
+  <si>
+    <t>Semana</t>
+  </si>
+  <si>
+    <t>ENTORNO</t>
+  </si>
+  <si>
+    <t># Dia Reto</t>
+  </si>
+  <si>
+    <t>Avance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observaciones. </t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este día quise abrir de onda SPY, QQQ, TSLA, y nada. Me decía que había retrasos. Finalmente insistí a abrir MSFT y sin darme cuenta ya abrí y me tomó 3 órdenes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En teoría hoy tengo que enviar mi fondo a TS. 2100 USD. Y también practicar en demo el Short Call y Short Put, luego del mediodía. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se cumplen 4 meses de haber comenzado con Ingresarios. Para honrar el proceso. </t>
+  </si>
+  <si>
+    <t>Evaluar todo lo logrado en demo</t>
+  </si>
+  <si>
+    <t>Se cumplen 66 días desde que inicié el reto. Para cumplir mi proceso, y honrar mi palabra.</t>
+  </si>
+  <si>
+    <t>Demo+Real</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquí comienza un mejoramiento continuo. De ir perfeccionando el AVG. De Bateo, y otros. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoy apliqué por primera vez stop loss a un BPCS. Ya aparece en mi cuenta 2100.60 USD. De manera oficial. Pero continúo en Nivel 1. </t>
+  </si>
+  <si>
+    <t>23/07/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aprendí que puedo exportar a excel la cadena de opciones completa de una fecha dada. Se me abre un abanico de oportunidades. Para programar en Java. </t>
   </si>
 </sst>
 </file>
@@ -204,12 +292,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -239,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -256,7 +350,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="B29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,18 +870,14 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>15</v>
-      </c>
-      <c r="B20" s="4"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>16</v>
-      </c>
+      <c r="A21" s="4"/>
       <c r="B21" s="8">
         <v>43989</v>
       </c>
@@ -780,18 +886,14 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>17</v>
-      </c>
-      <c r="B22" s="4"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>18</v>
-      </c>
+      <c r="A23" s="4"/>
       <c r="B23" s="8">
         <v>44111</v>
       </c>
@@ -800,18 +902,14 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>19</v>
-      </c>
+      <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>20</v>
-      </c>
+      <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>35</v>
       </c>
@@ -904,33 +1002,51 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="C38" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+      <c r="C40" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+      <c r="C41" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
@@ -939,8 +1055,12 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
@@ -1501,4 +1621,1868 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:G128"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="10"/>
+    <col min="7" max="7" width="143" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>1</v>
+      </c>
+      <c r="B8" s="11">
+        <v>44018</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="10">
+        <v>26</v>
+      </c>
+      <c r="F8" s="12">
+        <f>1/120</f>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>2</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44019</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="10">
+        <v>27</v>
+      </c>
+      <c r="F9" s="12">
+        <f>2/120</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44020</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="10">
+        <v>28</v>
+      </c>
+      <c r="F10" s="12">
+        <f>3/120</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>4</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44021</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="10">
+        <v>29</v>
+      </c>
+      <c r="F11" s="12">
+        <f>4/120</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>5</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44022</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="10">
+        <v>30</v>
+      </c>
+      <c r="F12" s="12">
+        <f>5/120</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>6</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44025</v>
+      </c>
+      <c r="C13" s="14">
+        <v>2</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="10">
+        <v>31</v>
+      </c>
+      <c r="F13" s="12">
+        <f>6/120</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>7</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44026</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="10">
+        <v>32</v>
+      </c>
+      <c r="F14" s="12">
+        <f>7/120</f>
+        <v>5.8333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>8</v>
+      </c>
+      <c r="B15" s="11">
+        <v>44027</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="10">
+        <v>33</v>
+      </c>
+      <c r="F15" s="12">
+        <f>8/120</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>9</v>
+      </c>
+      <c r="B16" s="11">
+        <v>44028</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="10">
+        <v>34</v>
+      </c>
+      <c r="F16" s="12">
+        <f>9/120</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>10</v>
+      </c>
+      <c r="B17" s="11">
+        <v>44029</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="10">
+        <v>35</v>
+      </c>
+      <c r="F17" s="12">
+        <f>10/120</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>11</v>
+      </c>
+      <c r="B18" s="11">
+        <v>44032</v>
+      </c>
+      <c r="C18" s="14">
+        <v>3</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="10">
+        <v>36</v>
+      </c>
+      <c r="F18" s="12">
+        <f>11/120</f>
+        <v>9.166666666666666E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>12</v>
+      </c>
+      <c r="B19" s="11">
+        <v>44033</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="10">
+        <v>37</v>
+      </c>
+      <c r="F19" s="12">
+        <f>12/120</f>
+        <v>0.1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>13</v>
+      </c>
+      <c r="B20" s="11">
+        <v>44034</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="10">
+        <v>38</v>
+      </c>
+      <c r="F20" s="12">
+        <f>13/120</f>
+        <v>0.10833333333333334</v>
+      </c>
+      <c r="G20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>14</v>
+      </c>
+      <c r="B21" s="11">
+        <v>44035</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>15</v>
+      </c>
+      <c r="B22" s="11">
+        <v>44036</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>16</v>
+      </c>
+      <c r="B23" s="11">
+        <v>44039</v>
+      </c>
+      <c r="C23" s="14">
+        <v>4</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>17</v>
+      </c>
+      <c r="B24" s="11">
+        <v>44040</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>18</v>
+      </c>
+      <c r="B25" s="11">
+        <v>44041</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>19</v>
+      </c>
+      <c r="B26" s="11">
+        <v>44042</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>20</v>
+      </c>
+      <c r="B27" s="11">
+        <v>44043</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>21</v>
+      </c>
+      <c r="B28" s="11">
+        <v>44046</v>
+      </c>
+      <c r="C28" s="14">
+        <v>5</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>22</v>
+      </c>
+      <c r="B29" s="11">
+        <v>44047</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>23</v>
+      </c>
+      <c r="B30" s="11">
+        <v>44048</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>24</v>
+      </c>
+      <c r="B31" s="11">
+        <v>44049</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>25</v>
+      </c>
+      <c r="B32" s="11">
+        <v>44050</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>26</v>
+      </c>
+      <c r="B33" s="11">
+        <v>44053</v>
+      </c>
+      <c r="C33" s="14">
+        <v>6</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>27</v>
+      </c>
+      <c r="B34" s="11">
+        <v>44054</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>28</v>
+      </c>
+      <c r="B35" s="11">
+        <v>44055</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>29</v>
+      </c>
+      <c r="B36" s="11">
+        <v>44056</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>30</v>
+      </c>
+      <c r="B37" s="11">
+        <v>44057</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>31</v>
+      </c>
+      <c r="B38" s="11">
+        <v>44060</v>
+      </c>
+      <c r="C38" s="14">
+        <v>7</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>32</v>
+      </c>
+      <c r="B39" s="11">
+        <v>44061</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>33</v>
+      </c>
+      <c r="B40" s="11">
+        <v>44062</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>34</v>
+      </c>
+      <c r="B41" s="11">
+        <v>44063</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
+        <v>35</v>
+      </c>
+      <c r="B42" s="13">
+        <v>44064</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="10">
+        <v>60</v>
+      </c>
+      <c r="G42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>36</v>
+      </c>
+      <c r="B43" s="11">
+        <v>44067</v>
+      </c>
+      <c r="C43" s="14">
+        <v>8</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="10">
+        <v>61</v>
+      </c>
+      <c r="G43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>37</v>
+      </c>
+      <c r="B44" s="11">
+        <v>44068</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="10">
+        <v>62</v>
+      </c>
+      <c r="G44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <v>38</v>
+      </c>
+      <c r="B45" s="11">
+        <v>44069</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="10">
+        <v>63</v>
+      </c>
+      <c r="G45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>39</v>
+      </c>
+      <c r="B46" s="11">
+        <v>44070</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="10">
+        <v>64</v>
+      </c>
+      <c r="G46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <v>40</v>
+      </c>
+      <c r="B47" s="11">
+        <v>44071</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="10">
+        <v>65</v>
+      </c>
+      <c r="G47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
+        <v>41</v>
+      </c>
+      <c r="B48" s="11">
+        <v>44074</v>
+      </c>
+      <c r="C48" s="14">
+        <v>9</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="10">
+        <v>66</v>
+      </c>
+      <c r="G48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <v>42</v>
+      </c>
+      <c r="B49" s="11">
+        <v>44075</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <v>43</v>
+      </c>
+      <c r="B50" s="11">
+        <v>44076</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" s="10"/>
+    </row>
+    <row r="51" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <v>44</v>
+      </c>
+      <c r="B51" s="11">
+        <v>44077</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51" s="10"/>
+    </row>
+    <row r="52" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <v>45</v>
+      </c>
+      <c r="B52" s="11">
+        <v>44078</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="10"/>
+    </row>
+    <row r="53" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <v>46</v>
+      </c>
+      <c r="B53" s="11">
+        <v>44081</v>
+      </c>
+      <c r="C53" s="14">
+        <v>10</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" s="10"/>
+    </row>
+    <row r="54" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
+        <v>47</v>
+      </c>
+      <c r="B54" s="11">
+        <v>44082</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E54" s="10"/>
+    </row>
+    <row r="55" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
+        <v>48</v>
+      </c>
+      <c r="B55" s="11">
+        <v>44083</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55" s="10"/>
+    </row>
+    <row r="56" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
+        <v>49</v>
+      </c>
+      <c r="B56" s="11">
+        <v>44084</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E56" s="10"/>
+    </row>
+    <row r="57" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <v>50</v>
+      </c>
+      <c r="B57" s="11">
+        <v>44085</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E57" s="10"/>
+    </row>
+    <row r="58" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <v>51</v>
+      </c>
+      <c r="B58" s="11">
+        <v>44088</v>
+      </c>
+      <c r="C58" s="14">
+        <v>11</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E58" s="10"/>
+    </row>
+    <row r="59" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <v>52</v>
+      </c>
+      <c r="B59" s="11">
+        <v>44089</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59" s="10"/>
+    </row>
+    <row r="60" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>53</v>
+      </c>
+      <c r="B60" s="11">
+        <v>44090</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E60" s="10"/>
+    </row>
+    <row r="61" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <v>54</v>
+      </c>
+      <c r="B61" s="11">
+        <v>44091</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E61" s="10"/>
+    </row>
+    <row r="62" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <v>55</v>
+      </c>
+      <c r="B62" s="11">
+        <v>44092</v>
+      </c>
+      <c r="C62" s="14"/>
+      <c r="D62" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E62" s="10"/>
+    </row>
+    <row r="63" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
+        <v>56</v>
+      </c>
+      <c r="B63" s="11">
+        <v>44095</v>
+      </c>
+      <c r="C63" s="14">
+        <v>12</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E63" s="10"/>
+    </row>
+    <row r="64" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="10">
+        <v>57</v>
+      </c>
+      <c r="B64" s="11">
+        <v>44096</v>
+      </c>
+      <c r="C64" s="14"/>
+      <c r="D64" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E64" s="10"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
+        <v>58</v>
+      </c>
+      <c r="B65" s="11">
+        <v>44097</v>
+      </c>
+      <c r="C65" s="14"/>
+      <c r="D65" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E65" s="10"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="10">
+        <v>59</v>
+      </c>
+      <c r="B66" s="11">
+        <v>44098</v>
+      </c>
+      <c r="C66" s="14"/>
+      <c r="D66" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E66" s="10"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="10">
+        <v>60</v>
+      </c>
+      <c r="B67" s="13">
+        <v>44099</v>
+      </c>
+      <c r="C67" s="14"/>
+      <c r="D67" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E67" s="10"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="10">
+        <v>61</v>
+      </c>
+      <c r="B68" s="11">
+        <v>44102</v>
+      </c>
+      <c r="C68" s="14">
+        <v>13</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E68" s="10"/>
+      <c r="G68" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="10">
+        <v>62</v>
+      </c>
+      <c r="B69" s="11">
+        <v>44103</v>
+      </c>
+      <c r="C69" s="14"/>
+      <c r="D69" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E69" s="10"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="10">
+        <v>63</v>
+      </c>
+      <c r="B70" s="11">
+        <v>44104</v>
+      </c>
+      <c r="C70" s="14"/>
+      <c r="D70" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E70" s="10"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="10">
+        <v>64</v>
+      </c>
+      <c r="B71" s="11">
+        <v>44105</v>
+      </c>
+      <c r="C71" s="14"/>
+      <c r="D71" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E71" s="10"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="10">
+        <v>65</v>
+      </c>
+      <c r="B72" s="11">
+        <v>44106</v>
+      </c>
+      <c r="C72" s="14"/>
+      <c r="D72" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E72" s="10"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="10">
+        <v>66</v>
+      </c>
+      <c r="B73" s="11">
+        <v>44109</v>
+      </c>
+      <c r="C73" s="14">
+        <v>14</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E73" s="10"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="10">
+        <v>67</v>
+      </c>
+      <c r="B74" s="11">
+        <v>44110</v>
+      </c>
+      <c r="C74" s="14"/>
+      <c r="D74" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E74" s="10"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="10">
+        <v>68</v>
+      </c>
+      <c r="B75" s="11">
+        <v>44111</v>
+      </c>
+      <c r="C75" s="14"/>
+      <c r="D75" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E75" s="10"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="10">
+        <v>69</v>
+      </c>
+      <c r="B76" s="11">
+        <v>44112</v>
+      </c>
+      <c r="C76" s="14"/>
+      <c r="D76" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E76" s="10"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="10">
+        <v>70</v>
+      </c>
+      <c r="B77" s="11">
+        <v>44113</v>
+      </c>
+      <c r="C77" s="14"/>
+      <c r="D77" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E77" s="10"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="10">
+        <v>71</v>
+      </c>
+      <c r="B78" s="11">
+        <v>44116</v>
+      </c>
+      <c r="C78" s="14">
+        <v>15</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E78" s="10"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="10">
+        <v>72</v>
+      </c>
+      <c r="B79" s="11">
+        <v>44117</v>
+      </c>
+      <c r="C79" s="14"/>
+      <c r="D79" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E79" s="10"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="10">
+        <v>73</v>
+      </c>
+      <c r="B80" s="11">
+        <v>44118</v>
+      </c>
+      <c r="C80" s="14"/>
+      <c r="D80" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E80" s="10"/>
+    </row>
+    <row r="81" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="10">
+        <v>74</v>
+      </c>
+      <c r="B81" s="11">
+        <v>44119</v>
+      </c>
+      <c r="C81" s="14"/>
+      <c r="D81" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E81" s="10"/>
+    </row>
+    <row r="82" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="10">
+        <v>75</v>
+      </c>
+      <c r="B82" s="11">
+        <v>44120</v>
+      </c>
+      <c r="C82" s="14"/>
+      <c r="D82" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E82" s="10"/>
+    </row>
+    <row r="83" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="10">
+        <v>76</v>
+      </c>
+      <c r="B83" s="11">
+        <v>44123</v>
+      </c>
+      <c r="C83" s="14">
+        <v>16</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E83" s="10"/>
+    </row>
+    <row r="84" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="10">
+        <v>77</v>
+      </c>
+      <c r="B84" s="11">
+        <v>44124</v>
+      </c>
+      <c r="C84" s="14"/>
+      <c r="D84" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E84" s="10"/>
+    </row>
+    <row r="85" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="10">
+        <v>78</v>
+      </c>
+      <c r="B85" s="11">
+        <v>44125</v>
+      </c>
+      <c r="C85" s="14"/>
+      <c r="D85" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E85" s="10"/>
+    </row>
+    <row r="86" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="10">
+        <v>79</v>
+      </c>
+      <c r="B86" s="11">
+        <v>44126</v>
+      </c>
+      <c r="C86" s="14"/>
+      <c r="D86" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E86" s="10"/>
+    </row>
+    <row r="87" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="10">
+        <v>80</v>
+      </c>
+      <c r="B87" s="11">
+        <v>44127</v>
+      </c>
+      <c r="C87" s="14"/>
+      <c r="D87" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E87" s="10"/>
+    </row>
+    <row r="88" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="10">
+        <v>81</v>
+      </c>
+      <c r="B88" s="11">
+        <v>44130</v>
+      </c>
+      <c r="C88" s="14">
+        <v>17</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E88" s="10"/>
+    </row>
+    <row r="89" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="10">
+        <v>82</v>
+      </c>
+      <c r="B89" s="11">
+        <v>44131</v>
+      </c>
+      <c r="C89" s="14"/>
+      <c r="D89" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E89" s="10"/>
+    </row>
+    <row r="90" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="10">
+        <v>83</v>
+      </c>
+      <c r="B90" s="11">
+        <v>44132</v>
+      </c>
+      <c r="C90" s="14"/>
+      <c r="D90" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E90" s="10"/>
+    </row>
+    <row r="91" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="10">
+        <v>84</v>
+      </c>
+      <c r="B91" s="11">
+        <v>44133</v>
+      </c>
+      <c r="C91" s="14"/>
+      <c r="D91" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E91" s="10"/>
+    </row>
+    <row r="92" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="10">
+        <v>85</v>
+      </c>
+      <c r="B92" s="11">
+        <v>44134</v>
+      </c>
+      <c r="C92" s="14"/>
+      <c r="D92" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E92" s="10"/>
+    </row>
+    <row r="93" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="10">
+        <v>86</v>
+      </c>
+      <c r="B93" s="11">
+        <v>44137</v>
+      </c>
+      <c r="C93" s="14">
+        <v>18</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E93" s="10"/>
+    </row>
+    <row r="94" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="10">
+        <v>87</v>
+      </c>
+      <c r="B94" s="11">
+        <v>44138</v>
+      </c>
+      <c r="C94" s="14"/>
+      <c r="D94" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E94" s="10"/>
+    </row>
+    <row r="95" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="10">
+        <v>88</v>
+      </c>
+      <c r="B95" s="11">
+        <v>44139</v>
+      </c>
+      <c r="C95" s="14"/>
+      <c r="D95" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E95" s="10"/>
+    </row>
+    <row r="96" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="10">
+        <v>89</v>
+      </c>
+      <c r="B96" s="11">
+        <v>44140</v>
+      </c>
+      <c r="C96" s="14"/>
+      <c r="D96" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E96" s="10"/>
+    </row>
+    <row r="97" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="10">
+        <v>90</v>
+      </c>
+      <c r="B97" s="11">
+        <v>44141</v>
+      </c>
+      <c r="C97" s="14"/>
+      <c r="D97" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E97" s="10"/>
+    </row>
+    <row r="98" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="10">
+        <v>91</v>
+      </c>
+      <c r="B98" s="11">
+        <v>44144</v>
+      </c>
+      <c r="C98" s="14">
+        <v>19</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E98" s="10"/>
+    </row>
+    <row r="99" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="10">
+        <v>92</v>
+      </c>
+      <c r="B99" s="11">
+        <v>44145</v>
+      </c>
+      <c r="C99" s="14"/>
+      <c r="D99" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E99" s="10"/>
+    </row>
+    <row r="100" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="10">
+        <v>93</v>
+      </c>
+      <c r="B100" s="11">
+        <v>44146</v>
+      </c>
+      <c r="C100" s="14"/>
+      <c r="D100" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E100" s="10"/>
+    </row>
+    <row r="101" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="10">
+        <v>94</v>
+      </c>
+      <c r="B101" s="11">
+        <v>44147</v>
+      </c>
+      <c r="C101" s="14"/>
+      <c r="D101" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E101" s="10"/>
+    </row>
+    <row r="102" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="10">
+        <v>95</v>
+      </c>
+      <c r="B102" s="11">
+        <v>44148</v>
+      </c>
+      <c r="C102" s="14"/>
+      <c r="D102" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E102" s="10"/>
+    </row>
+    <row r="103" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="10">
+        <v>96</v>
+      </c>
+      <c r="B103" s="11">
+        <v>44151</v>
+      </c>
+      <c r="C103" s="14">
+        <v>20</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E103" s="10"/>
+    </row>
+    <row r="104" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="10">
+        <v>97</v>
+      </c>
+      <c r="B104" s="11">
+        <v>44152</v>
+      </c>
+      <c r="C104" s="14"/>
+      <c r="D104" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E104" s="10"/>
+    </row>
+    <row r="105" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="10">
+        <v>98</v>
+      </c>
+      <c r="B105" s="11">
+        <v>44153</v>
+      </c>
+      <c r="C105" s="14"/>
+      <c r="D105" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E105" s="10"/>
+    </row>
+    <row r="106" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="10">
+        <v>99</v>
+      </c>
+      <c r="B106" s="11">
+        <v>44154</v>
+      </c>
+      <c r="C106" s="14"/>
+      <c r="D106" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E106" s="10"/>
+    </row>
+    <row r="107" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="10">
+        <v>100</v>
+      </c>
+      <c r="B107" s="11">
+        <v>44155</v>
+      </c>
+      <c r="C107" s="14"/>
+      <c r="D107" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E107" s="10"/>
+    </row>
+    <row r="108" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="10">
+        <v>101</v>
+      </c>
+      <c r="B108" s="11">
+        <v>44158</v>
+      </c>
+      <c r="C108" s="14">
+        <v>21</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E108" s="10"/>
+    </row>
+    <row r="109" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="10">
+        <v>102</v>
+      </c>
+      <c r="B109" s="11">
+        <v>44159</v>
+      </c>
+      <c r="C109" s="14"/>
+      <c r="D109" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E109" s="10"/>
+    </row>
+    <row r="110" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="10">
+        <v>103</v>
+      </c>
+      <c r="B110" s="11">
+        <v>44160</v>
+      </c>
+      <c r="C110" s="14"/>
+      <c r="D110" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E110" s="10"/>
+    </row>
+    <row r="111" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="10">
+        <v>104</v>
+      </c>
+      <c r="B111" s="11">
+        <v>44161</v>
+      </c>
+      <c r="C111" s="14"/>
+      <c r="D111" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E111" s="10"/>
+    </row>
+    <row r="112" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="10">
+        <v>105</v>
+      </c>
+      <c r="B112" s="11">
+        <v>44162</v>
+      </c>
+      <c r="C112" s="14"/>
+      <c r="D112" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E112" s="10"/>
+    </row>
+    <row r="113" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="10">
+        <v>106</v>
+      </c>
+      <c r="B113" s="11">
+        <v>44165</v>
+      </c>
+      <c r="C113" s="14">
+        <v>22</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E113" s="10"/>
+    </row>
+    <row r="114" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="10">
+        <v>107</v>
+      </c>
+      <c r="B114" s="11">
+        <v>44166</v>
+      </c>
+      <c r="C114" s="14"/>
+      <c r="D114" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E114" s="10"/>
+    </row>
+    <row r="115" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="10">
+        <v>108</v>
+      </c>
+      <c r="B115" s="11">
+        <v>44167</v>
+      </c>
+      <c r="C115" s="14"/>
+      <c r="D115" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E115" s="10"/>
+    </row>
+    <row r="116" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="10">
+        <v>109</v>
+      </c>
+      <c r="B116" s="11">
+        <v>44168</v>
+      </c>
+      <c r="C116" s="14"/>
+      <c r="D116" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E116" s="10"/>
+    </row>
+    <row r="117" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="10">
+        <v>110</v>
+      </c>
+      <c r="B117" s="11">
+        <v>44169</v>
+      </c>
+      <c r="C117" s="14"/>
+      <c r="D117" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E117" s="10"/>
+    </row>
+    <row r="118" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="10">
+        <v>111</v>
+      </c>
+      <c r="B118" s="11">
+        <v>44172</v>
+      </c>
+      <c r="C118" s="14">
+        <v>23</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E118" s="10"/>
+    </row>
+    <row r="119" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="10">
+        <v>112</v>
+      </c>
+      <c r="B119" s="11">
+        <v>44173</v>
+      </c>
+      <c r="C119" s="14"/>
+      <c r="D119" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E119" s="10"/>
+    </row>
+    <row r="120" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="10">
+        <v>113</v>
+      </c>
+      <c r="B120" s="11">
+        <v>44174</v>
+      </c>
+      <c r="C120" s="14"/>
+      <c r="D120" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E120" s="10"/>
+    </row>
+    <row r="121" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="10">
+        <v>114</v>
+      </c>
+      <c r="B121" s="11">
+        <v>44175</v>
+      </c>
+      <c r="C121" s="14"/>
+      <c r="D121" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E121" s="10"/>
+    </row>
+    <row r="122" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="10">
+        <v>115</v>
+      </c>
+      <c r="B122" s="11">
+        <v>44176</v>
+      </c>
+      <c r="C122" s="14"/>
+      <c r="D122" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E122" s="10"/>
+    </row>
+    <row r="123" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="10">
+        <v>116</v>
+      </c>
+      <c r="B123" s="11">
+        <v>44179</v>
+      </c>
+      <c r="C123" s="14">
+        <v>24</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E123" s="10"/>
+    </row>
+    <row r="124" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="10">
+        <v>117</v>
+      </c>
+      <c r="B124" s="11">
+        <v>44180</v>
+      </c>
+      <c r="C124" s="14"/>
+      <c r="D124" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E124" s="10"/>
+    </row>
+    <row r="125" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="10">
+        <v>118</v>
+      </c>
+      <c r="B125" s="11">
+        <v>44181</v>
+      </c>
+      <c r="C125" s="14"/>
+      <c r="D125" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E125" s="10"/>
+    </row>
+    <row r="126" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="10">
+        <v>119</v>
+      </c>
+      <c r="B126" s="11">
+        <v>44182</v>
+      </c>
+      <c r="C126" s="14"/>
+      <c r="D126" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E126" s="10"/>
+    </row>
+    <row r="127" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="10">
+        <v>120</v>
+      </c>
+      <c r="B127" s="11">
+        <v>44183</v>
+      </c>
+      <c r="C127" s="14"/>
+      <c r="D127" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E127" s="10"/>
+    </row>
+    <row r="128" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="C123:C127"/>
+    <mergeCell ref="C68:C72"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="C83:C87"/>
+    <mergeCell ref="C88:C92"/>
+    <mergeCell ref="C93:C97"/>
+    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="C103:C107"/>
+    <mergeCell ref="C108:C112"/>
+    <mergeCell ref="C113:C117"/>
+    <mergeCell ref="C118:C122"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Progresos/Hitos importantes.xlsx
+++ b/Progresos/Hitos importantes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="85">
   <si>
     <t xml:space="preserve">Objetivo del documento: </t>
   </si>
@@ -260,6 +260,21 @@
   </si>
   <si>
     <t xml:space="preserve">Aprendí que puedo exportar a excel la cadena de opciones completa de una fecha dada. Se me abre un abanico de oportunidades. Para programar en Java. </t>
+  </si>
+  <si>
+    <t>25/07/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminé mi Bot Experto Calculador de Credits Spreads. Voy a hacerle PEDEM desde mañana. La idea es registrar el avance todos los días, a las 12:00hs. Y los viernes, las 10:00hs y las 12:00hs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">De cada activo que analizo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoy hice mi primera operación con Trailing Stop. Tenía abierto 5 contratos y tomé 2. Luego, quise cerrar 4 contratos y me rechazó. Luego intenté con 3 y me aceptó. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoy me comuniqué por chat con la gente de TradeStation. Me dijeron que aun está pendiente lo del Formulario. Pero que enviaron un email para que aceleren el proceso. </t>
   </si>
 </sst>
 </file>
@@ -333,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -367,6 +382,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,7 +687,7 @@
   <dimension ref="A1:E155"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,18 +1080,28 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
+      <c r="B45" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
+      <c r="C46" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
+      <c r="B47" s="15">
+        <v>43898</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
@@ -1627,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G128"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,7 +1662,7 @@
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="10"/>
-    <col min="7" max="7" width="143" customWidth="1"/>
+    <col min="7" max="7" width="143.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
   </cols>
@@ -1953,6 +1979,10 @@
       <c r="E21" s="10">
         <v>39</v>
       </c>
+      <c r="F21" s="12">
+        <f>14/120</f>
+        <v>0.11666666666666667</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
@@ -1968,6 +1998,10 @@
       <c r="E22" s="10">
         <v>40</v>
       </c>
+      <c r="F22" s="12">
+        <f>A22/120</f>
+        <v>0.125</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
@@ -1985,6 +2019,10 @@
       <c r="E23" s="10">
         <v>41</v>
       </c>
+      <c r="F23" s="12">
+        <f t="shared" ref="F23:F28" si="0">A23/120</f>
+        <v>0.13333333333333333</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
@@ -2000,6 +2038,10 @@
       <c r="E24" s="10">
         <v>42</v>
       </c>
+      <c r="F24" s="12">
+        <f t="shared" si="0"/>
+        <v>0.14166666666666666</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
@@ -2015,6 +2057,10 @@
       <c r="E25" s="10">
         <v>43</v>
       </c>
+      <c r="F25" s="12">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
@@ -2030,6 +2076,10 @@
       <c r="E26" s="10">
         <v>44</v>
       </c>
+      <c r="F26" s="12">
+        <f t="shared" si="0"/>
+        <v>0.15833333333333333</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
@@ -2045,6 +2095,10 @@
       <c r="E27" s="10">
         <v>45</v>
       </c>
+      <c r="F27" s="12">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
@@ -2061,6 +2115,13 @@
       </c>
       <c r="E28" s="10">
         <v>46</v>
+      </c>
+      <c r="F28" s="12">
+        <f t="shared" si="0"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G28" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">

--- a/Progresos/Hitos importantes.xlsx
+++ b/Progresos/Hitos importantes.xlsx
@@ -11,16 +11,11 @@
     <sheet name="Planeamiento-Formación" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="104">
   <si>
     <t xml:space="preserve">Objetivo del documento: </t>
   </si>
@@ -275,6 +270,63 @@
   </si>
   <si>
     <t xml:space="preserve">Hoy me comuniqué por chat con la gente de TradeStation. Me dijeron que aun está pendiente lo del Formulario. Pero que enviaron un email para que aceleren el proceso. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me comentaron que por el momento solo me dejarán en el Nivel 1. No sé qué hacer. Lo único que me queda es seguir aprendiendo más. Lo que sí o sí tengo asegurado es Forex, pero en Icmarkets. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Está también en mi mente el tema de Futuros que me dijeron la gente del comando. Pero poco y nada sé ese mundo. Me costó luego un chiqui aprender opciones y cambiarme a futuros. Pero </t>
+  </si>
+  <si>
+    <t>no me voy a quedar atrás. Hasta el momento, voy a Grabar sesion de EUR USD, el jueves M2K y viernes también posiblemente. Ver qué es lo que puedo grabar del drone, en renkos, para el jueves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y viernes. Hoy 12 de Agosto, como no sé hacia dónde ir, apunto a FX. Y estaré todo el día reuniendo info sobre Futuros. Cuánto necesito. Qué nivel, qué dinero, etc. Y si es posible mis primeras </t>
+  </si>
+  <si>
+    <t xml:space="preserve">operaciones en simulado. Hoy reseteé mi cuenta con 10000 USD. Por suerte, preparé para Forex y Futuros también. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formateé mi equipo. Se eliminó todo lo que hice en varias semanas del BOT Experto en Credit Spreads. Pero me sorprendió en 1 día hice todo de nuevo. Mejoré notablemente mi conocimiento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me informaron de TS que por el momento sólo puedo seguir en el Nivel 1. Estoy en una nebulosa. </t>
+  </si>
+  <si>
+    <t>Estaré analizando alternativas. Hoy MR a Forex. EURUSD. A partir de mañana posiblemente Futuros. Coincide con la formación de Ingresarios</t>
+  </si>
+  <si>
+    <t>Entre ayer y hoy hice mis primeras 2 operaciones con futuros. Ya termino de leer el instructivo de Rankia y hago mi plan de trading. Y después leeré cómo pasar</t>
+  </si>
+  <si>
+    <t>13/08/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hice mi primera operación en Positivo con Futuros. También me suscribí a la Data de Russel. Para poder ver el índice de Russell 2000. Son 5 usd Mensuales. </t>
+  </si>
+  <si>
+    <t>14/08/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoy aprendí cómo poner stop y limit en la ventana de Matrix, en la grilla. De chiripa, tocó mi stop. Transferí 1500 usd a mi cuenta de Futuros y me dijeron que estoy preparado para operar allí. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta semana tratar de probar el Drone con Futuros, en simulado. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mi cuenta real de opciones a la de Futuros. Me interesa ese tema del Drone en Futuros. Ver todos los vídeos relacionados a futuros en Mastermind. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y arrancar ya en real Futuros, al menos para saber los costes exactos, y ver si me sale también ese tema de que no tengo datos en tiempo real. </t>
+  </si>
+  <si>
+    <t>17/08/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aprendí que el Status ON en la estrategia Drone pone todos los chiches(Srt, Lng, BEL, etc.) y off pone sólo Market y Limit. No sé qué son ahora esos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falta saber porqué no habilita para Futuros. Sí para equities. </t>
   </si>
 </sst>
 </file>
@@ -379,10 +431,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,7 +1148,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="15">
+      <c r="B47" s="14">
         <v>43898</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -1110,8 +1162,12 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
+      <c r="B49" s="14">
+        <v>43990</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
@@ -1125,38 +1181,60 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
+      <c r="B52" s="14">
+        <v>44143</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
+      <c r="C53" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
+      <c r="C54" s="4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
+      <c r="B55" s="14">
+        <v>44173</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
+      <c r="C56" s="4" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
+      <c r="B57" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
+      <c r="B58" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
@@ -1165,13 +1243,19 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
+      <c r="B60" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
+      <c r="C61" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
@@ -1653,8 +1737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G128"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,7 +1791,7 @@
       <c r="B8" s="11">
         <v>44018</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="15">
         <v>1</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -1731,7 +1815,7 @@
       <c r="B9" s="11">
         <v>44019</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="10" t="s">
         <v>68</v>
       </c>
@@ -1750,7 +1834,7 @@
       <c r="B10" s="11">
         <v>44020</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="10" t="s">
         <v>68</v>
       </c>
@@ -1769,7 +1853,7 @@
       <c r="B11" s="11">
         <v>44021</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="10" t="s">
         <v>68</v>
       </c>
@@ -1788,7 +1872,7 @@
       <c r="B12" s="11">
         <v>44022</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="10" t="s">
         <v>68</v>
       </c>
@@ -1807,7 +1891,7 @@
       <c r="B13" s="11">
         <v>44025</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="15">
         <v>2</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -1828,7 +1912,7 @@
       <c r="B14" s="11">
         <v>44026</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="10" t="s">
         <v>68</v>
       </c>
@@ -1847,7 +1931,7 @@
       <c r="B15" s="11">
         <v>44027</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="10" t="s">
         <v>68</v>
       </c>
@@ -1866,7 +1950,7 @@
       <c r="B16" s="11">
         <v>44028</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="10" t="s">
         <v>68</v>
       </c>
@@ -1885,7 +1969,7 @@
       <c r="B17" s="11">
         <v>44029</v>
       </c>
-      <c r="C17" s="14"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="10" t="s">
         <v>68</v>
       </c>
@@ -1907,7 +1991,7 @@
       <c r="B18" s="11">
         <v>44032</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="15">
         <v>3</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -1928,7 +2012,7 @@
       <c r="B19" s="11">
         <v>44033</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="10" t="s">
         <v>68</v>
       </c>
@@ -1950,7 +2034,7 @@
       <c r="B20" s="11">
         <v>44034</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="10" t="s">
         <v>68</v>
       </c>
@@ -1972,7 +2056,7 @@
       <c r="B21" s="11">
         <v>44035</v>
       </c>
-      <c r="C21" s="14"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="10" t="s">
         <v>68</v>
       </c>
@@ -1991,7 +2075,7 @@
       <c r="B22" s="11">
         <v>44036</v>
       </c>
-      <c r="C22" s="14"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="10" t="s">
         <v>68</v>
       </c>
@@ -2010,7 +2094,7 @@
       <c r="B23" s="11">
         <v>44039</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="15">
         <v>4</v>
       </c>
       <c r="D23" s="10" t="s">
@@ -2020,7 +2104,7 @@
         <v>41</v>
       </c>
       <c r="F23" s="12">
-        <f t="shared" ref="F23:F28" si="0">A23/120</f>
+        <f t="shared" ref="F23:F39" si="0">A23/120</f>
         <v>0.13333333333333333</v>
       </c>
     </row>
@@ -2031,7 +2115,7 @@
       <c r="B24" s="11">
         <v>44040</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="10" t="s">
         <v>68</v>
       </c>
@@ -2050,7 +2134,7 @@
       <c r="B25" s="11">
         <v>44041</v>
       </c>
-      <c r="C25" s="14"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="10" t="s">
         <v>68</v>
       </c>
@@ -2069,7 +2153,7 @@
       <c r="B26" s="11">
         <v>44042</v>
       </c>
-      <c r="C26" s="14"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="10" t="s">
         <v>68</v>
       </c>
@@ -2088,7 +2172,7 @@
       <c r="B27" s="11">
         <v>44043</v>
       </c>
-      <c r="C27" s="14"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="10" t="s">
         <v>68</v>
       </c>
@@ -2107,7 +2191,7 @@
       <c r="B28" s="11">
         <v>44046</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="15">
         <v>5</v>
       </c>
       <c r="D28" s="10" t="s">
@@ -2131,12 +2215,16 @@
       <c r="B29" s="11">
         <v>44047</v>
       </c>
-      <c r="C29" s="14"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="10" t="s">
         <v>68</v>
       </c>
       <c r="E29" s="10">
         <v>47</v>
+      </c>
+      <c r="F29" s="12">
+        <f t="shared" si="0"/>
+        <v>0.18333333333333332</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2146,12 +2234,16 @@
       <c r="B30" s="11">
         <v>44048</v>
       </c>
-      <c r="C30" s="14"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="10" t="s">
         <v>68</v>
       </c>
       <c r="E30" s="10">
         <v>48</v>
+      </c>
+      <c r="F30" s="12">
+        <f t="shared" si="0"/>
+        <v>0.19166666666666668</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2161,12 +2253,16 @@
       <c r="B31" s="11">
         <v>44049</v>
       </c>
-      <c r="C31" s="14"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="10" t="s">
         <v>68</v>
       </c>
       <c r="E31" s="10">
         <v>49</v>
+      </c>
+      <c r="F31" s="12">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2176,12 +2272,16 @@
       <c r="B32" s="11">
         <v>44050</v>
       </c>
-      <c r="C32" s="14"/>
+      <c r="C32" s="15"/>
       <c r="D32" s="10" t="s">
         <v>68</v>
       </c>
       <c r="E32" s="10">
         <v>50</v>
+      </c>
+      <c r="F32" s="12">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333334</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2191,7 +2291,7 @@
       <c r="B33" s="11">
         <v>44053</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="15">
         <v>6</v>
       </c>
       <c r="D33" s="10" t="s">
@@ -2199,6 +2299,10 @@
       </c>
       <c r="E33" s="10">
         <v>51</v>
+      </c>
+      <c r="F33" s="12">
+        <f t="shared" si="0"/>
+        <v>0.21666666666666667</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2208,12 +2312,19 @@
       <c r="B34" s="11">
         <v>44054</v>
       </c>
-      <c r="C34" s="14"/>
+      <c r="C34" s="15"/>
       <c r="D34" s="10" t="s">
         <v>68</v>
       </c>
       <c r="E34" s="10">
         <v>52</v>
+      </c>
+      <c r="F34" s="12">
+        <f t="shared" si="0"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G34" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2223,12 +2334,19 @@
       <c r="B35" s="11">
         <v>44055</v>
       </c>
-      <c r="C35" s="14"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="10" t="s">
         <v>68</v>
       </c>
       <c r="E35" s="10">
         <v>53</v>
+      </c>
+      <c r="F35" s="12">
+        <f t="shared" si="0"/>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="G35" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2238,12 +2356,19 @@
       <c r="B36" s="11">
         <v>44056</v>
       </c>
-      <c r="C36" s="14"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="10" t="s">
         <v>68</v>
       </c>
       <c r="E36" s="10">
         <v>54</v>
+      </c>
+      <c r="F36" s="12">
+        <f t="shared" si="0"/>
+        <v>0.24166666666666667</v>
+      </c>
+      <c r="G36" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2253,12 +2378,19 @@
       <c r="B37" s="11">
         <v>44057</v>
       </c>
-      <c r="C37" s="14"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="10" t="s">
         <v>68</v>
       </c>
       <c r="E37" s="10">
         <v>55</v>
+      </c>
+      <c r="F37" s="12">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="G37" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2268,14 +2400,21 @@
       <c r="B38" s="11">
         <v>44060</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="15">
         <v>7</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E38" s="10">
         <v>56</v>
+      </c>
+      <c r="F38" s="12">
+        <f t="shared" si="0"/>
+        <v>0.25833333333333336</v>
+      </c>
+      <c r="G38" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2285,12 +2424,19 @@
       <c r="B39" s="11">
         <v>44061</v>
       </c>
-      <c r="C39" s="14"/>
+      <c r="C39" s="15"/>
       <c r="D39" s="10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E39" s="10">
         <v>57</v>
+      </c>
+      <c r="F39" s="12">
+        <f t="shared" si="0"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="G39" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2300,9 +2446,9 @@
       <c r="B40" s="11">
         <v>44062</v>
       </c>
-      <c r="C40" s="14"/>
+      <c r="C40" s="15"/>
       <c r="D40" s="10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E40" s="10">
         <v>58</v>
@@ -2315,9 +2461,9 @@
       <c r="B41" s="11">
         <v>44063</v>
       </c>
-      <c r="C41" s="14"/>
+      <c r="C41" s="15"/>
       <c r="D41" s="10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E41" s="10">
         <v>59</v>
@@ -2330,9 +2476,9 @@
       <c r="B42" s="13">
         <v>44064</v>
       </c>
-      <c r="C42" s="14"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E42" s="10">
         <v>60</v>
@@ -2348,11 +2494,11 @@
       <c r="B43" s="11">
         <v>44067</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="15">
         <v>8</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E43" s="10">
         <v>61</v>
@@ -2368,9 +2514,9 @@
       <c r="B44" s="11">
         <v>44068</v>
       </c>
-      <c r="C44" s="14"/>
+      <c r="C44" s="15"/>
       <c r="D44" s="10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E44" s="10">
         <v>62</v>
@@ -2386,9 +2532,9 @@
       <c r="B45" s="11">
         <v>44069</v>
       </c>
-      <c r="C45" s="14"/>
+      <c r="C45" s="15"/>
       <c r="D45" s="10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E45" s="10">
         <v>63</v>
@@ -2404,9 +2550,9 @@
       <c r="B46" s="11">
         <v>44070</v>
       </c>
-      <c r="C46" s="14"/>
+      <c r="C46" s="15"/>
       <c r="D46" s="10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E46" s="10">
         <v>64</v>
@@ -2422,9 +2568,9 @@
       <c r="B47" s="11">
         <v>44071</v>
       </c>
-      <c r="C47" s="14"/>
+      <c r="C47" s="15"/>
       <c r="D47" s="10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E47" s="10">
         <v>65</v>
@@ -2440,11 +2586,11 @@
       <c r="B48" s="11">
         <v>44074</v>
       </c>
-      <c r="C48" s="14">
+      <c r="C48" s="15">
         <v>9</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E48" s="10">
         <v>66</v>
@@ -2460,7 +2606,7 @@
       <c r="B49" s="11">
         <v>44075</v>
       </c>
-      <c r="C49" s="14"/>
+      <c r="C49" s="15"/>
       <c r="D49" s="10" t="s">
         <v>74</v>
       </c>
@@ -2473,7 +2619,7 @@
       <c r="B50" s="11">
         <v>44076</v>
       </c>
-      <c r="C50" s="14"/>
+      <c r="C50" s="15"/>
       <c r="D50" s="10" t="s">
         <v>74</v>
       </c>
@@ -2486,7 +2632,7 @@
       <c r="B51" s="11">
         <v>44077</v>
       </c>
-      <c r="C51" s="14"/>
+      <c r="C51" s="15"/>
       <c r="D51" s="10" t="s">
         <v>74</v>
       </c>
@@ -2499,7 +2645,7 @@
       <c r="B52" s="11">
         <v>44078</v>
       </c>
-      <c r="C52" s="14"/>
+      <c r="C52" s="15"/>
       <c r="D52" s="10" t="s">
         <v>74</v>
       </c>
@@ -2512,7 +2658,7 @@
       <c r="B53" s="11">
         <v>44081</v>
       </c>
-      <c r="C53" s="14">
+      <c r="C53" s="15">
         <v>10</v>
       </c>
       <c r="D53" s="10" t="s">
@@ -2527,7 +2673,7 @@
       <c r="B54" s="11">
         <v>44082</v>
       </c>
-      <c r="C54" s="14"/>
+      <c r="C54" s="15"/>
       <c r="D54" s="10" t="s">
         <v>74</v>
       </c>
@@ -2540,7 +2686,7 @@
       <c r="B55" s="11">
         <v>44083</v>
       </c>
-      <c r="C55" s="14"/>
+      <c r="C55" s="15"/>
       <c r="D55" s="10" t="s">
         <v>74</v>
       </c>
@@ -2553,7 +2699,7 @@
       <c r="B56" s="11">
         <v>44084</v>
       </c>
-      <c r="C56" s="14"/>
+      <c r="C56" s="15"/>
       <c r="D56" s="10" t="s">
         <v>74</v>
       </c>
@@ -2566,7 +2712,7 @@
       <c r="B57" s="11">
         <v>44085</v>
       </c>
-      <c r="C57" s="14"/>
+      <c r="C57" s="15"/>
       <c r="D57" s="10" t="s">
         <v>74</v>
       </c>
@@ -2579,7 +2725,7 @@
       <c r="B58" s="11">
         <v>44088</v>
       </c>
-      <c r="C58" s="14">
+      <c r="C58" s="15">
         <v>11</v>
       </c>
       <c r="D58" s="10" t="s">
@@ -2594,7 +2740,7 @@
       <c r="B59" s="11">
         <v>44089</v>
       </c>
-      <c r="C59" s="14"/>
+      <c r="C59" s="15"/>
       <c r="D59" s="10" t="s">
         <v>74</v>
       </c>
@@ -2607,7 +2753,7 @@
       <c r="B60" s="11">
         <v>44090</v>
       </c>
-      <c r="C60" s="14"/>
+      <c r="C60" s="15"/>
       <c r="D60" s="10" t="s">
         <v>74</v>
       </c>
@@ -2620,7 +2766,7 @@
       <c r="B61" s="11">
         <v>44091</v>
       </c>
-      <c r="C61" s="14"/>
+      <c r="C61" s="15"/>
       <c r="D61" s="10" t="s">
         <v>74</v>
       </c>
@@ -2633,7 +2779,7 @@
       <c r="B62" s="11">
         <v>44092</v>
       </c>
-      <c r="C62" s="14"/>
+      <c r="C62" s="15"/>
       <c r="D62" s="10" t="s">
         <v>74</v>
       </c>
@@ -2646,7 +2792,7 @@
       <c r="B63" s="11">
         <v>44095</v>
       </c>
-      <c r="C63" s="14">
+      <c r="C63" s="15">
         <v>12</v>
       </c>
       <c r="D63" s="10" t="s">
@@ -2661,7 +2807,7 @@
       <c r="B64" s="11">
         <v>44096</v>
       </c>
-      <c r="C64" s="14"/>
+      <c r="C64" s="15"/>
       <c r="D64" s="10" t="s">
         <v>74</v>
       </c>
@@ -2674,7 +2820,7 @@
       <c r="B65" s="11">
         <v>44097</v>
       </c>
-      <c r="C65" s="14"/>
+      <c r="C65" s="15"/>
       <c r="D65" s="10" t="s">
         <v>74</v>
       </c>
@@ -2687,7 +2833,7 @@
       <c r="B66" s="11">
         <v>44098</v>
       </c>
-      <c r="C66" s="14"/>
+      <c r="C66" s="15"/>
       <c r="D66" s="10" t="s">
         <v>74</v>
       </c>
@@ -2700,7 +2846,7 @@
       <c r="B67" s="13">
         <v>44099</v>
       </c>
-      <c r="C67" s="14"/>
+      <c r="C67" s="15"/>
       <c r="D67" s="10" t="s">
         <v>74</v>
       </c>
@@ -2713,7 +2859,7 @@
       <c r="B68" s="11">
         <v>44102</v>
       </c>
-      <c r="C68" s="14">
+      <c r="C68" s="15">
         <v>13</v>
       </c>
       <c r="D68" s="10" t="s">
@@ -2731,7 +2877,7 @@
       <c r="B69" s="11">
         <v>44103</v>
       </c>
-      <c r="C69" s="14"/>
+      <c r="C69" s="15"/>
       <c r="D69" s="10" t="s">
         <v>75</v>
       </c>
@@ -2744,7 +2890,7 @@
       <c r="B70" s="11">
         <v>44104</v>
       </c>
-      <c r="C70" s="14"/>
+      <c r="C70" s="15"/>
       <c r="D70" s="10" t="s">
         <v>75</v>
       </c>
@@ -2757,7 +2903,7 @@
       <c r="B71" s="11">
         <v>44105</v>
       </c>
-      <c r="C71" s="14"/>
+      <c r="C71" s="15"/>
       <c r="D71" s="10" t="s">
         <v>75</v>
       </c>
@@ -2770,7 +2916,7 @@
       <c r="B72" s="11">
         <v>44106</v>
       </c>
-      <c r="C72" s="14"/>
+      <c r="C72" s="15"/>
       <c r="D72" s="10" t="s">
         <v>75</v>
       </c>
@@ -2783,7 +2929,7 @@
       <c r="B73" s="11">
         <v>44109</v>
       </c>
-      <c r="C73" s="14">
+      <c r="C73" s="15">
         <v>14</v>
       </c>
       <c r="D73" s="10" t="s">
@@ -2798,7 +2944,7 @@
       <c r="B74" s="11">
         <v>44110</v>
       </c>
-      <c r="C74" s="14"/>
+      <c r="C74" s="15"/>
       <c r="D74" s="10" t="s">
         <v>75</v>
       </c>
@@ -2811,7 +2957,7 @@
       <c r="B75" s="11">
         <v>44111</v>
       </c>
-      <c r="C75" s="14"/>
+      <c r="C75" s="15"/>
       <c r="D75" s="10" t="s">
         <v>75</v>
       </c>
@@ -2824,7 +2970,7 @@
       <c r="B76" s="11">
         <v>44112</v>
       </c>
-      <c r="C76" s="14"/>
+      <c r="C76" s="15"/>
       <c r="D76" s="10" t="s">
         <v>75</v>
       </c>
@@ -2837,7 +2983,7 @@
       <c r="B77" s="11">
         <v>44113</v>
       </c>
-      <c r="C77" s="14"/>
+      <c r="C77" s="15"/>
       <c r="D77" s="10" t="s">
         <v>75</v>
       </c>
@@ -2850,7 +2996,7 @@
       <c r="B78" s="11">
         <v>44116</v>
       </c>
-      <c r="C78" s="14">
+      <c r="C78" s="15">
         <v>15</v>
       </c>
       <c r="D78" s="10" t="s">
@@ -2865,7 +3011,7 @@
       <c r="B79" s="11">
         <v>44117</v>
       </c>
-      <c r="C79" s="14"/>
+      <c r="C79" s="15"/>
       <c r="D79" s="10" t="s">
         <v>75</v>
       </c>
@@ -2878,7 +3024,7 @@
       <c r="B80" s="11">
         <v>44118</v>
       </c>
-      <c r="C80" s="14"/>
+      <c r="C80" s="15"/>
       <c r="D80" s="10" t="s">
         <v>75</v>
       </c>
@@ -2891,7 +3037,7 @@
       <c r="B81" s="11">
         <v>44119</v>
       </c>
-      <c r="C81" s="14"/>
+      <c r="C81" s="15"/>
       <c r="D81" s="10" t="s">
         <v>75</v>
       </c>
@@ -2904,7 +3050,7 @@
       <c r="B82" s="11">
         <v>44120</v>
       </c>
-      <c r="C82" s="14"/>
+      <c r="C82" s="15"/>
       <c r="D82" s="10" t="s">
         <v>75</v>
       </c>
@@ -2917,7 +3063,7 @@
       <c r="B83" s="11">
         <v>44123</v>
       </c>
-      <c r="C83" s="14">
+      <c r="C83" s="15">
         <v>16</v>
       </c>
       <c r="D83" s="10" t="s">
@@ -2932,7 +3078,7 @@
       <c r="B84" s="11">
         <v>44124</v>
       </c>
-      <c r="C84" s="14"/>
+      <c r="C84" s="15"/>
       <c r="D84" s="10" t="s">
         <v>75</v>
       </c>
@@ -2945,7 +3091,7 @@
       <c r="B85" s="11">
         <v>44125</v>
       </c>
-      <c r="C85" s="14"/>
+      <c r="C85" s="15"/>
       <c r="D85" s="10" t="s">
         <v>75</v>
       </c>
@@ -2958,7 +3104,7 @@
       <c r="B86" s="11">
         <v>44126</v>
       </c>
-      <c r="C86" s="14"/>
+      <c r="C86" s="15"/>
       <c r="D86" s="10" t="s">
         <v>75</v>
       </c>
@@ -2971,7 +3117,7 @@
       <c r="B87" s="11">
         <v>44127</v>
       </c>
-      <c r="C87" s="14"/>
+      <c r="C87" s="15"/>
       <c r="D87" s="10" t="s">
         <v>75</v>
       </c>
@@ -2984,7 +3130,7 @@
       <c r="B88" s="11">
         <v>44130</v>
       </c>
-      <c r="C88" s="14">
+      <c r="C88" s="15">
         <v>17</v>
       </c>
       <c r="D88" s="10" t="s">
@@ -2999,7 +3145,7 @@
       <c r="B89" s="11">
         <v>44131</v>
       </c>
-      <c r="C89" s="14"/>
+      <c r="C89" s="15"/>
       <c r="D89" s="10" t="s">
         <v>75</v>
       </c>
@@ -3012,7 +3158,7 @@
       <c r="B90" s="11">
         <v>44132</v>
       </c>
-      <c r="C90" s="14"/>
+      <c r="C90" s="15"/>
       <c r="D90" s="10" t="s">
         <v>75</v>
       </c>
@@ -3025,7 +3171,7 @@
       <c r="B91" s="11">
         <v>44133</v>
       </c>
-      <c r="C91" s="14"/>
+      <c r="C91" s="15"/>
       <c r="D91" s="10" t="s">
         <v>75</v>
       </c>
@@ -3038,7 +3184,7 @@
       <c r="B92" s="11">
         <v>44134</v>
       </c>
-      <c r="C92" s="14"/>
+      <c r="C92" s="15"/>
       <c r="D92" s="10" t="s">
         <v>75</v>
       </c>
@@ -3051,7 +3197,7 @@
       <c r="B93" s="11">
         <v>44137</v>
       </c>
-      <c r="C93" s="14">
+      <c r="C93" s="15">
         <v>18</v>
       </c>
       <c r="D93" s="10" t="s">
@@ -3066,7 +3212,7 @@
       <c r="B94" s="11">
         <v>44138</v>
       </c>
-      <c r="C94" s="14"/>
+      <c r="C94" s="15"/>
       <c r="D94" s="10" t="s">
         <v>75</v>
       </c>
@@ -3079,7 +3225,7 @@
       <c r="B95" s="11">
         <v>44139</v>
       </c>
-      <c r="C95" s="14"/>
+      <c r="C95" s="15"/>
       <c r="D95" s="10" t="s">
         <v>75</v>
       </c>
@@ -3092,7 +3238,7 @@
       <c r="B96" s="11">
         <v>44140</v>
       </c>
-      <c r="C96" s="14"/>
+      <c r="C96" s="15"/>
       <c r="D96" s="10" t="s">
         <v>75</v>
       </c>
@@ -3105,7 +3251,7 @@
       <c r="B97" s="11">
         <v>44141</v>
       </c>
-      <c r="C97" s="14"/>
+      <c r="C97" s="15"/>
       <c r="D97" s="10" t="s">
         <v>75</v>
       </c>
@@ -3118,7 +3264,7 @@
       <c r="B98" s="11">
         <v>44144</v>
       </c>
-      <c r="C98" s="14">
+      <c r="C98" s="15">
         <v>19</v>
       </c>
       <c r="D98" s="10" t="s">
@@ -3133,7 +3279,7 @@
       <c r="B99" s="11">
         <v>44145</v>
       </c>
-      <c r="C99" s="14"/>
+      <c r="C99" s="15"/>
       <c r="D99" s="10" t="s">
         <v>75</v>
       </c>
@@ -3146,7 +3292,7 @@
       <c r="B100" s="11">
         <v>44146</v>
       </c>
-      <c r="C100" s="14"/>
+      <c r="C100" s="15"/>
       <c r="D100" s="10" t="s">
         <v>75</v>
       </c>
@@ -3159,7 +3305,7 @@
       <c r="B101" s="11">
         <v>44147</v>
       </c>
-      <c r="C101" s="14"/>
+      <c r="C101" s="15"/>
       <c r="D101" s="10" t="s">
         <v>75</v>
       </c>
@@ -3172,7 +3318,7 @@
       <c r="B102" s="11">
         <v>44148</v>
       </c>
-      <c r="C102" s="14"/>
+      <c r="C102" s="15"/>
       <c r="D102" s="10" t="s">
         <v>75</v>
       </c>
@@ -3185,7 +3331,7 @@
       <c r="B103" s="11">
         <v>44151</v>
       </c>
-      <c r="C103" s="14">
+      <c r="C103" s="15">
         <v>20</v>
       </c>
       <c r="D103" s="10" t="s">
@@ -3200,7 +3346,7 @@
       <c r="B104" s="11">
         <v>44152</v>
       </c>
-      <c r="C104" s="14"/>
+      <c r="C104" s="15"/>
       <c r="D104" s="10" t="s">
         <v>75</v>
       </c>
@@ -3213,7 +3359,7 @@
       <c r="B105" s="11">
         <v>44153</v>
       </c>
-      <c r="C105" s="14"/>
+      <c r="C105" s="15"/>
       <c r="D105" s="10" t="s">
         <v>75</v>
       </c>
@@ -3226,7 +3372,7 @@
       <c r="B106" s="11">
         <v>44154</v>
       </c>
-      <c r="C106" s="14"/>
+      <c r="C106" s="15"/>
       <c r="D106" s="10" t="s">
         <v>75</v>
       </c>
@@ -3239,7 +3385,7 @@
       <c r="B107" s="11">
         <v>44155</v>
       </c>
-      <c r="C107" s="14"/>
+      <c r="C107" s="15"/>
       <c r="D107" s="10" t="s">
         <v>75</v>
       </c>
@@ -3252,7 +3398,7 @@
       <c r="B108" s="11">
         <v>44158</v>
       </c>
-      <c r="C108" s="14">
+      <c r="C108" s="15">
         <v>21</v>
       </c>
       <c r="D108" s="10" t="s">
@@ -3267,7 +3413,7 @@
       <c r="B109" s="11">
         <v>44159</v>
       </c>
-      <c r="C109" s="14"/>
+      <c r="C109" s="15"/>
       <c r="D109" s="10" t="s">
         <v>75</v>
       </c>
@@ -3280,7 +3426,7 @@
       <c r="B110" s="11">
         <v>44160</v>
       </c>
-      <c r="C110" s="14"/>
+      <c r="C110" s="15"/>
       <c r="D110" s="10" t="s">
         <v>75</v>
       </c>
@@ -3293,7 +3439,7 @@
       <c r="B111" s="11">
         <v>44161</v>
       </c>
-      <c r="C111" s="14"/>
+      <c r="C111" s="15"/>
       <c r="D111" s="10" t="s">
         <v>75</v>
       </c>
@@ -3306,7 +3452,7 @@
       <c r="B112" s="11">
         <v>44162</v>
       </c>
-      <c r="C112" s="14"/>
+      <c r="C112" s="15"/>
       <c r="D112" s="10" t="s">
         <v>75</v>
       </c>
@@ -3319,7 +3465,7 @@
       <c r="B113" s="11">
         <v>44165</v>
       </c>
-      <c r="C113" s="14">
+      <c r="C113" s="15">
         <v>22</v>
       </c>
       <c r="D113" s="10" t="s">
@@ -3334,7 +3480,7 @@
       <c r="B114" s="11">
         <v>44166</v>
       </c>
-      <c r="C114" s="14"/>
+      <c r="C114" s="15"/>
       <c r="D114" s="10" t="s">
         <v>75</v>
       </c>
@@ -3347,7 +3493,7 @@
       <c r="B115" s="11">
         <v>44167</v>
       </c>
-      <c r="C115" s="14"/>
+      <c r="C115" s="15"/>
       <c r="D115" s="10" t="s">
         <v>75</v>
       </c>
@@ -3360,7 +3506,7 @@
       <c r="B116" s="11">
         <v>44168</v>
       </c>
-      <c r="C116" s="14"/>
+      <c r="C116" s="15"/>
       <c r="D116" s="10" t="s">
         <v>75</v>
       </c>
@@ -3373,7 +3519,7 @@
       <c r="B117" s="11">
         <v>44169</v>
       </c>
-      <c r="C117" s="14"/>
+      <c r="C117" s="15"/>
       <c r="D117" s="10" t="s">
         <v>75</v>
       </c>
@@ -3386,7 +3532,7 @@
       <c r="B118" s="11">
         <v>44172</v>
       </c>
-      <c r="C118" s="14">
+      <c r="C118" s="15">
         <v>23</v>
       </c>
       <c r="D118" s="10" t="s">
@@ -3401,7 +3547,7 @@
       <c r="B119" s="11">
         <v>44173</v>
       </c>
-      <c r="C119" s="14"/>
+      <c r="C119" s="15"/>
       <c r="D119" s="10" t="s">
         <v>75</v>
       </c>
@@ -3414,7 +3560,7 @@
       <c r="B120" s="11">
         <v>44174</v>
       </c>
-      <c r="C120" s="14"/>
+      <c r="C120" s="15"/>
       <c r="D120" s="10" t="s">
         <v>75</v>
       </c>
@@ -3427,7 +3573,7 @@
       <c r="B121" s="11">
         <v>44175</v>
       </c>
-      <c r="C121" s="14"/>
+      <c r="C121" s="15"/>
       <c r="D121" s="10" t="s">
         <v>75</v>
       </c>
@@ -3440,7 +3586,7 @@
       <c r="B122" s="11">
         <v>44176</v>
       </c>
-      <c r="C122" s="14"/>
+      <c r="C122" s="15"/>
       <c r="D122" s="10" t="s">
         <v>75</v>
       </c>
@@ -3453,7 +3599,7 @@
       <c r="B123" s="11">
         <v>44179</v>
       </c>
-      <c r="C123" s="14">
+      <c r="C123" s="15">
         <v>24</v>
       </c>
       <c r="D123" s="10" t="s">
@@ -3468,7 +3614,7 @@
       <c r="B124" s="11">
         <v>44180</v>
       </c>
-      <c r="C124" s="14"/>
+      <c r="C124" s="15"/>
       <c r="D124" s="10" t="s">
         <v>75</v>
       </c>
@@ -3481,7 +3627,7 @@
       <c r="B125" s="11">
         <v>44181</v>
       </c>
-      <c r="C125" s="14"/>
+      <c r="C125" s="15"/>
       <c r="D125" s="10" t="s">
         <v>75</v>
       </c>
@@ -3494,7 +3640,7 @@
       <c r="B126" s="11">
         <v>44182</v>
       </c>
-      <c r="C126" s="14"/>
+      <c r="C126" s="15"/>
       <c r="D126" s="10" t="s">
         <v>75</v>
       </c>
@@ -3507,7 +3653,7 @@
       <c r="B127" s="11">
         <v>44183</v>
       </c>
-      <c r="C127" s="14"/>
+      <c r="C127" s="15"/>
       <c r="D127" s="10" t="s">
         <v>75</v>
       </c>
@@ -3519,6 +3665,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C123:C127"/>
+    <mergeCell ref="C68:C72"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="C83:C87"/>
+    <mergeCell ref="C88:C92"/>
+    <mergeCell ref="C93:C97"/>
+    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="C103:C107"/>
+    <mergeCell ref="C108:C112"/>
+    <mergeCell ref="C113:C117"/>
+    <mergeCell ref="C118:C122"/>
     <mergeCell ref="C63:C67"/>
     <mergeCell ref="C8:C12"/>
     <mergeCell ref="C13:C17"/>
@@ -3531,18 +3689,6 @@
     <mergeCell ref="C48:C52"/>
     <mergeCell ref="C53:C57"/>
     <mergeCell ref="C58:C62"/>
-    <mergeCell ref="C123:C127"/>
-    <mergeCell ref="C68:C72"/>
-    <mergeCell ref="C73:C77"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="C83:C87"/>
-    <mergeCell ref="C88:C92"/>
-    <mergeCell ref="C93:C97"/>
-    <mergeCell ref="C98:C102"/>
-    <mergeCell ref="C103:C107"/>
-    <mergeCell ref="C108:C112"/>
-    <mergeCell ref="C113:C117"/>
-    <mergeCell ref="C118:C122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Progresos/Hitos importantes.xlsx
+++ b/Progresos/Hitos importantes.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="Planeamiento-Formación" sheetId="2" r:id="rId2"/>
+    <sheet name="Evaluaciones" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="136">
   <si>
     <t xml:space="preserve">Objetivo del documento: </t>
   </si>
@@ -230,9 +231,6 @@
     <t xml:space="preserve">En teoría hoy tengo que enviar mi fondo a TS. 2100 USD. Y también practicar en demo el Short Call y Short Put, luego del mediodía. </t>
   </si>
   <si>
-    <t xml:space="preserve">Se cumplen 4 meses de haber comenzado con Ingresarios. Para honrar el proceso. </t>
-  </si>
-  <si>
     <t>Evaluar todo lo logrado en demo</t>
   </si>
   <si>
@@ -327,6 +325,105 @@
   </si>
   <si>
     <t xml:space="preserve">Falta saber porqué no habilita para Futuros. Sí para equities. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tal parece que solucioné el tema de la conectividad en casa. Puse directamente un cable ETHERNET desde el repetidor de Wifi. Hasta ahora, no se fue la conexión. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me falta practicar con el tema del Trailing stop en Futuros. Y en Matrix seguir las operaciones. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se cumplen 4 meses de haber comenzado con Ingresarios. Para honrar el proceso. Hoy practicar el tema de Trailing Stop en Futuros. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluar todo lo logrado en demo. Poner a trabajar al drone en Real. Con un solo contrato. </t>
+  </si>
+  <si>
+    <t>21/08/2020</t>
+  </si>
+  <si>
+    <t>Aprendí que desde el TradeManager también se puede gestionar lo que tenemos abiertos, en Positions. Cerrarlos, etc. También vi que el dron parece que maneja su propio activo. Y si nosotros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abrimos otras operaciones, por lo que he visto, él también quiere gestionar y se mezcla todo. No sabemos si hace bien. Pero lo que sí, es que, la única manera que sé que debo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gestionar es ver otro activo. Posiblemente el DOW ó el SP para abrir operaciones, con una variación pequeña de 0.5 también. Y de esa manera diferenciar si estoy abriendo yo o el drone. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sino poner el Drone en DOW. </t>
+  </si>
+  <si>
+    <t>25/08/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un gran hito. Aprendí mejor cómo utilizar el Matriz. Se puede arrastrar los Stop Loss. Quise llevar a la práctica el tema de Escalón por escalón pero al final hice lo que decía Mark Douglas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poner solamente cualquier stop abajo del precio actual. Porque simplemente tratar de seguir el precio es una pérdida de tiempo. Aparte de tener que tener un poco de paciencia. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pero está todo grabado la sesión de hoy en Market Replay. Bien podría haber dejado que llegue hasta lo más que se pueda también. </t>
+  </si>
+  <si>
+    <t>26/08/2020</t>
+  </si>
+  <si>
+    <t>Hoy hice mi primera operación en Futuros de Divisas. Parece que demasiado se paga en comisiones. Específicamente en el Euro dólar. Es bastante parecido al de Forex. Después voy a comparar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gráficas de Forex y de Futuros.Ya sé la variación, cuanto me cobran por tick(pip). Anoté en mi cuaderno. Por cada 4 pips de ganancia me dan 5 USD. O sea, mínimo debo ganar 2 pips para no perder. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sea, 2 pips es mi Break Even. Al menos es más pequeño que las opciones. Parece que me está gustando más futuros. </t>
+  </si>
+  <si>
+    <t>27/08/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoy hice mi primera operación en Futuros de Divisas en real. Me cagué todo. Demasiado tuve miedo. Por una parte, quise practicar lo que sabía de Matrix, pero me superó todo, lo poco que me </t>
+  </si>
+  <si>
+    <t xml:space="preserve">llegué a dar cuenta es que el matrix te da la sensación de que vas perdiendo más rápido con el micro russell. Cuando en realidad una operación en divisas te come más rápido el saldo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debo aprender a mentalizarme acerca de los dos modos de valor de ticks. Son muy diferentes. No sé si practicar más en demo. Quiero hacer esa técnica de Mark Douglas pero tengo el miedo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">no me deja. </t>
+  </si>
+  <si>
+    <t>29/08/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decido probar una semana más en demo. Solamente buscando oportunidades. Voy a utilizar el método de Mark Douglas. Pero en el último contrato, en la situación libre de Riesgo, voy a dejar correr. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si total, ese último ya no va a importar si toca o no. Voy a poner en BreakEven. Y luego, ya pondré el Trailing Stop. Eso tendré que probar. El desafío es que llegue a tp los dos contratos primeros. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El otro ya no importa. O sino, dejar para más adelante ese método. Por ejemplo, que ese Stop Loss no sea más que 3%  de mi cuenta. Cuando llegue a ese punto, usaré ese método. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estoy creyendo firmemente que el siguiente paso de mi proceso será ejecutar mi sistema sin duda ni vacilación. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluación de todo lo logrado en demo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El siguiente paso de mi proceso será ejecutar mi sistema sin duda ni vacilación. Quedarme ahí y ser paciente en demo, como si fuera dinero real. Mentalizarme que toda esa espera es por mi bien. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Considerar que tengo sólo 2007 usd. Y que cada pérdida suma. Tener luego ya un registro de pérdida en realidad, y otro de pérdida virtual. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demasiado sufrí el Viernes por no estar seguro. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eso de Sistema de Mark Doublas dejar cuando mi balance sea de aprox. 5000 USD. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">También voy a tratar de practicar algo de EasyLanguage. Creo que no es muy complicado. Un poquito por lo menos. En un año, ya podría crear un bot experto. </t>
   </si>
 </sst>
 </file>
@@ -738,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView topLeftCell="B64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,26 +1221,26 @@
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1152,7 +1249,7 @@
         <v>43898</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1166,7 +1263,7 @@
         <v>43990</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1185,21 +1282,21 @@
         <v>44143</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1208,32 +1305,32 @@
         <v>44173</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1244,17 +1341,17 @@
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1269,23 +1366,33 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
+      <c r="B64" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
+      <c r="C65" s="4" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
+      <c r="C66" s="4" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
+      <c r="C67" s="4" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
@@ -1294,18 +1401,26 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
+      <c r="B69" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
+      <c r="C70" s="4" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
+      <c r="C71" s="4" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
@@ -1314,18 +1429,26 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
+      <c r="B73" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
+      <c r="C74" s="4" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
+      <c r="C75" s="4" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
@@ -1334,23 +1457,33 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
+      <c r="B77" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
+      <c r="C78" s="4" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
+      <c r="C79" s="4" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
+      <c r="C80" s="4" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
@@ -1359,18 +1492,26 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
+      <c r="B82" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
+      <c r="C83" s="4" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
+      <c r="C84" s="4" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
@@ -1737,8 +1878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G128"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView topLeftCell="D31" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2046,7 +2187,7 @@
         <v>0.10833333333333334</v>
       </c>
       <c r="G20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2104,7 +2245,7 @@
         <v>41</v>
       </c>
       <c r="F23" s="12">
-        <f t="shared" ref="F23:F39" si="0">A23/120</f>
+        <f t="shared" ref="F23:F47" si="0">A23/120</f>
         <v>0.13333333333333333</v>
       </c>
     </row>
@@ -2205,7 +2346,7 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="G28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2324,7 +2465,7 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="G34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2346,7 +2487,7 @@
         <v>0.23333333333333334</v>
       </c>
       <c r="G35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2368,7 +2509,7 @@
         <v>0.24166666666666667</v>
       </c>
       <c r="G36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2390,7 +2531,7 @@
         <v>0.25</v>
       </c>
       <c r="G37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2404,7 +2545,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E38" s="10">
         <v>56</v>
@@ -2414,7 +2555,7 @@
         <v>0.25833333333333336</v>
       </c>
       <c r="G38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2426,7 +2567,7 @@
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E39" s="10">
         <v>57</v>
@@ -2436,7 +2577,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="G39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2448,10 +2589,17 @@
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E40" s="10">
         <v>58</v>
+      </c>
+      <c r="F40" s="12">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="G40" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2463,10 +2611,17 @@
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E41" s="10">
         <v>59</v>
+      </c>
+      <c r="F41" s="12">
+        <f t="shared" si="0"/>
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="G41" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2478,13 +2633,17 @@
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E42" s="10">
         <v>60</v>
       </c>
+      <c r="F42" s="12">
+        <f t="shared" si="0"/>
+        <v>0.29166666666666669</v>
+      </c>
       <c r="G42" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2498,13 +2657,17 @@
         <v>8</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E43" s="10">
         <v>61</v>
       </c>
+      <c r="F43" s="12">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
       <c r="G43" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2516,13 +2679,17 @@
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E44" s="10">
         <v>62</v>
       </c>
+      <c r="F44" s="12">
+        <f t="shared" si="0"/>
+        <v>0.30833333333333335</v>
+      </c>
       <c r="G44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2534,13 +2701,17 @@
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E45" s="10">
         <v>63</v>
       </c>
+      <c r="F45" s="12">
+        <f t="shared" si="0"/>
+        <v>0.31666666666666665</v>
+      </c>
       <c r="G45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2552,13 +2723,17 @@
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E46" s="10">
         <v>64</v>
       </c>
+      <c r="F46" s="12">
+        <f t="shared" si="0"/>
+        <v>0.32500000000000001</v>
+      </c>
       <c r="G46" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2570,13 +2745,17 @@
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E47" s="10">
         <v>65</v>
       </c>
+      <c r="F47" s="12">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="G47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2590,13 +2769,13 @@
         <v>9</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E48" s="10">
         <v>66</v>
       </c>
       <c r="G48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2608,7 +2787,7 @@
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E49" s="10"/>
     </row>
@@ -2621,7 +2800,7 @@
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E50" s="10"/>
     </row>
@@ -2634,7 +2813,7 @@
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E51" s="10"/>
     </row>
@@ -2647,7 +2826,7 @@
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E52" s="10"/>
     </row>
@@ -2662,7 +2841,7 @@
         <v>10</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E53" s="10"/>
     </row>
@@ -2675,7 +2854,7 @@
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E54" s="10"/>
     </row>
@@ -2688,7 +2867,7 @@
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E55" s="10"/>
     </row>
@@ -2701,7 +2880,7 @@
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E56" s="10"/>
     </row>
@@ -2714,7 +2893,7 @@
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E57" s="10"/>
     </row>
@@ -2729,7 +2908,7 @@
         <v>11</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E58" s="10"/>
     </row>
@@ -2742,7 +2921,7 @@
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E59" s="10"/>
     </row>
@@ -2755,7 +2934,7 @@
       </c>
       <c r="C60" s="15"/>
       <c r="D60" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E60" s="10"/>
     </row>
@@ -2768,7 +2947,7 @@
       </c>
       <c r="C61" s="15"/>
       <c r="D61" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E61" s="10"/>
     </row>
@@ -2781,7 +2960,7 @@
       </c>
       <c r="C62" s="15"/>
       <c r="D62" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E62" s="10"/>
     </row>
@@ -2796,7 +2975,7 @@
         <v>12</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E63" s="10"/>
     </row>
@@ -2809,7 +2988,7 @@
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E64" s="10"/>
     </row>
@@ -2822,7 +3001,7 @@
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E65" s="10"/>
     </row>
@@ -2835,7 +3014,7 @@
       </c>
       <c r="C66" s="15"/>
       <c r="D66" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E66" s="10"/>
     </row>
@@ -2848,7 +3027,7 @@
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E67" s="10"/>
     </row>
@@ -2863,11 +3042,11 @@
         <v>13</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E68" s="10"/>
       <c r="G68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2879,7 +3058,7 @@
       </c>
       <c r="C69" s="15"/>
       <c r="D69" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E69" s="10"/>
     </row>
@@ -2892,7 +3071,7 @@
       </c>
       <c r="C70" s="15"/>
       <c r="D70" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E70" s="10"/>
     </row>
@@ -2905,7 +3084,7 @@
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E71" s="10"/>
     </row>
@@ -2918,7 +3097,7 @@
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E72" s="10"/>
     </row>
@@ -2933,7 +3112,7 @@
         <v>14</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E73" s="10"/>
     </row>
@@ -2946,7 +3125,7 @@
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E74" s="10"/>
     </row>
@@ -2959,7 +3138,7 @@
       </c>
       <c r="C75" s="15"/>
       <c r="D75" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E75" s="10"/>
     </row>
@@ -2972,7 +3151,7 @@
       </c>
       <c r="C76" s="15"/>
       <c r="D76" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E76" s="10"/>
     </row>
@@ -2985,7 +3164,7 @@
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E77" s="10"/>
     </row>
@@ -3000,7 +3179,7 @@
         <v>15</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E78" s="10"/>
     </row>
@@ -3013,7 +3192,7 @@
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E79" s="10"/>
     </row>
@@ -3026,7 +3205,7 @@
       </c>
       <c r="C80" s="15"/>
       <c r="D80" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E80" s="10"/>
     </row>
@@ -3039,7 +3218,7 @@
       </c>
       <c r="C81" s="15"/>
       <c r="D81" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E81" s="10"/>
     </row>
@@ -3052,7 +3231,7 @@
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E82" s="10"/>
     </row>
@@ -3067,7 +3246,7 @@
         <v>16</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E83" s="10"/>
     </row>
@@ -3080,7 +3259,7 @@
       </c>
       <c r="C84" s="15"/>
       <c r="D84" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E84" s="10"/>
     </row>
@@ -3093,7 +3272,7 @@
       </c>
       <c r="C85" s="15"/>
       <c r="D85" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E85" s="10"/>
     </row>
@@ -3106,7 +3285,7 @@
       </c>
       <c r="C86" s="15"/>
       <c r="D86" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E86" s="10"/>
     </row>
@@ -3119,7 +3298,7 @@
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E87" s="10"/>
     </row>
@@ -3134,7 +3313,7 @@
         <v>17</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E88" s="10"/>
     </row>
@@ -3147,7 +3326,7 @@
       </c>
       <c r="C89" s="15"/>
       <c r="D89" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E89" s="10"/>
     </row>
@@ -3160,7 +3339,7 @@
       </c>
       <c r="C90" s="15"/>
       <c r="D90" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E90" s="10"/>
     </row>
@@ -3173,7 +3352,7 @@
       </c>
       <c r="C91" s="15"/>
       <c r="D91" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E91" s="10"/>
     </row>
@@ -3186,7 +3365,7 @@
       </c>
       <c r="C92" s="15"/>
       <c r="D92" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E92" s="10"/>
     </row>
@@ -3201,7 +3380,7 @@
         <v>18</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E93" s="10"/>
     </row>
@@ -3214,7 +3393,7 @@
       </c>
       <c r="C94" s="15"/>
       <c r="D94" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E94" s="10"/>
     </row>
@@ -3227,7 +3406,7 @@
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E95" s="10"/>
     </row>
@@ -3240,7 +3419,7 @@
       </c>
       <c r="C96" s="15"/>
       <c r="D96" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E96" s="10"/>
     </row>
@@ -3253,7 +3432,7 @@
       </c>
       <c r="C97" s="15"/>
       <c r="D97" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E97" s="10"/>
     </row>
@@ -3268,7 +3447,7 @@
         <v>19</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E98" s="10"/>
     </row>
@@ -3281,7 +3460,7 @@
       </c>
       <c r="C99" s="15"/>
       <c r="D99" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E99" s="10"/>
     </row>
@@ -3294,7 +3473,7 @@
       </c>
       <c r="C100" s="15"/>
       <c r="D100" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E100" s="10"/>
     </row>
@@ -3307,7 +3486,7 @@
       </c>
       <c r="C101" s="15"/>
       <c r="D101" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E101" s="10"/>
     </row>
@@ -3320,7 +3499,7 @@
       </c>
       <c r="C102" s="15"/>
       <c r="D102" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E102" s="10"/>
     </row>
@@ -3335,7 +3514,7 @@
         <v>20</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E103" s="10"/>
     </row>
@@ -3348,7 +3527,7 @@
       </c>
       <c r="C104" s="15"/>
       <c r="D104" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E104" s="10"/>
     </row>
@@ -3361,7 +3540,7 @@
       </c>
       <c r="C105" s="15"/>
       <c r="D105" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E105" s="10"/>
     </row>
@@ -3374,7 +3553,7 @@
       </c>
       <c r="C106" s="15"/>
       <c r="D106" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E106" s="10"/>
     </row>
@@ -3387,7 +3566,7 @@
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E107" s="10"/>
     </row>
@@ -3402,7 +3581,7 @@
         <v>21</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E108" s="10"/>
     </row>
@@ -3415,7 +3594,7 @@
       </c>
       <c r="C109" s="15"/>
       <c r="D109" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E109" s="10"/>
     </row>
@@ -3428,7 +3607,7 @@
       </c>
       <c r="C110" s="15"/>
       <c r="D110" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E110" s="10"/>
     </row>
@@ -3441,7 +3620,7 @@
       </c>
       <c r="C111" s="15"/>
       <c r="D111" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E111" s="10"/>
     </row>
@@ -3454,7 +3633,7 @@
       </c>
       <c r="C112" s="15"/>
       <c r="D112" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E112" s="10"/>
     </row>
@@ -3469,7 +3648,7 @@
         <v>22</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E113" s="10"/>
     </row>
@@ -3482,7 +3661,7 @@
       </c>
       <c r="C114" s="15"/>
       <c r="D114" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E114" s="10"/>
     </row>
@@ -3495,7 +3674,7 @@
       </c>
       <c r="C115" s="15"/>
       <c r="D115" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E115" s="10"/>
     </row>
@@ -3508,7 +3687,7 @@
       </c>
       <c r="C116" s="15"/>
       <c r="D116" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E116" s="10"/>
     </row>
@@ -3521,7 +3700,7 @@
       </c>
       <c r="C117" s="15"/>
       <c r="D117" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E117" s="10"/>
     </row>
@@ -3536,7 +3715,7 @@
         <v>23</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E118" s="10"/>
     </row>
@@ -3549,7 +3728,7 @@
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E119" s="10"/>
     </row>
@@ -3562,7 +3741,7 @@
       </c>
       <c r="C120" s="15"/>
       <c r="D120" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E120" s="10"/>
     </row>
@@ -3575,7 +3754,7 @@
       </c>
       <c r="C121" s="15"/>
       <c r="D121" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E121" s="10"/>
     </row>
@@ -3588,7 +3767,7 @@
       </c>
       <c r="C122" s="15"/>
       <c r="D122" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E122" s="10"/>
     </row>
@@ -3603,7 +3782,7 @@
         <v>24</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E123" s="10"/>
     </row>
@@ -3616,7 +3795,7 @@
       </c>
       <c r="C124" s="15"/>
       <c r="D124" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E124" s="10"/>
     </row>
@@ -3629,7 +3808,7 @@
       </c>
       <c r="C125" s="15"/>
       <c r="D125" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E125" s="10"/>
     </row>
@@ -3642,7 +3821,7 @@
       </c>
       <c r="C126" s="15"/>
       <c r="D126" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E126" s="10"/>
     </row>
@@ -3655,7 +3834,7 @@
       </c>
       <c r="C127" s="15"/>
       <c r="D127" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E127" s="10"/>
     </row>
@@ -3665,6 +3844,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="C58:C62"/>
     <mergeCell ref="C123:C127"/>
     <mergeCell ref="C68:C72"/>
     <mergeCell ref="C73:C77"/>
@@ -3677,19 +3868,52 @@
     <mergeCell ref="C108:C112"/>
     <mergeCell ref="C113:C117"/>
     <mergeCell ref="C118:C122"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="C58:C62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Progresos/Hitos importantes.xlsx
+++ b/Progresos/Hitos importantes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="142">
   <si>
     <t xml:space="preserve">Objetivo del documento: </t>
   </si>
@@ -424,6 +424,24 @@
   </si>
   <si>
     <t xml:space="preserve">También voy a tratar de practicar algo de EasyLanguage. Creo que no es muy complicado. Un poquito por lo menos. En un año, ya podría crear un bot experto. </t>
+  </si>
+  <si>
+    <t>14/09/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aprendí a usar ordenes OSO. Me ahorra tiempo. </t>
+  </si>
+  <si>
+    <t>Esta semana volví completamente a demo. Quiero terminar mis 20 operaciones para tener una estrategia. Ya sea de scalping o El normal. Mejor abrir operacione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s en la hora de la sesión americana. O sino, Desde las 09:00 a las 16:00hs como dijo un compañero. Legalmente empieza a haber más volatilidad a partir de las </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoy levanté mi primer vídeo en mi Canal de Youtube exclusiva para alzar el entrenamiento: KAIZEN 4 LIVE. Pienso que podría hacer una comparación con el que suele levantar JAVA Trading. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayer aprendí algo muy importante que dijo Oliver Velez. Es mejor perder futuras ganancias, que perder capital. </t>
   </si>
 </sst>
 </file>
@@ -497,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -529,6 +547,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -835,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView topLeftCell="B64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,8 +1541,12 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
+      <c r="B86" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
@@ -1530,8 +1555,12 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
+      <c r="B88" s="14">
+        <v>44053</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
@@ -1540,8 +1569,12 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
+      <c r="B90" s="14">
+        <v>43872</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
@@ -1878,8 +1911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G128"/>
   <sheetViews>
-    <sheetView topLeftCell="D31" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView topLeftCell="D50" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1932,7 +1965,7 @@
       <c r="B8" s="11">
         <v>44018</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="16">
         <v>1</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -1956,7 +1989,7 @@
       <c r="B9" s="11">
         <v>44019</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="10" t="s">
         <v>68</v>
       </c>
@@ -1975,7 +2008,7 @@
       <c r="B10" s="11">
         <v>44020</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="10" t="s">
         <v>68</v>
       </c>
@@ -1994,7 +2027,7 @@
       <c r="B11" s="11">
         <v>44021</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="10" t="s">
         <v>68</v>
       </c>
@@ -2013,7 +2046,7 @@
       <c r="B12" s="11">
         <v>44022</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="10" t="s">
         <v>68</v>
       </c>
@@ -2032,7 +2065,7 @@
       <c r="B13" s="11">
         <v>44025</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="16">
         <v>2</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -2053,7 +2086,7 @@
       <c r="B14" s="11">
         <v>44026</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="10" t="s">
         <v>68</v>
       </c>
@@ -2072,7 +2105,7 @@
       <c r="B15" s="11">
         <v>44027</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="10" t="s">
         <v>68</v>
       </c>
@@ -2091,7 +2124,7 @@
       <c r="B16" s="11">
         <v>44028</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="10" t="s">
         <v>68</v>
       </c>
@@ -2110,7 +2143,7 @@
       <c r="B17" s="11">
         <v>44029</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="10" t="s">
         <v>68</v>
       </c>
@@ -2132,7 +2165,7 @@
       <c r="B18" s="11">
         <v>44032</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="16">
         <v>3</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -2153,7 +2186,7 @@
       <c r="B19" s="11">
         <v>44033</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="10" t="s">
         <v>68</v>
       </c>
@@ -2175,7 +2208,7 @@
       <c r="B20" s="11">
         <v>44034</v>
       </c>
-      <c r="C20" s="15"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="10" t="s">
         <v>68</v>
       </c>
@@ -2197,7 +2230,7 @@
       <c r="B21" s="11">
         <v>44035</v>
       </c>
-      <c r="C21" s="15"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="10" t="s">
         <v>68</v>
       </c>
@@ -2216,7 +2249,7 @@
       <c r="B22" s="11">
         <v>44036</v>
       </c>
-      <c r="C22" s="15"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="10" t="s">
         <v>68</v>
       </c>
@@ -2235,7 +2268,7 @@
       <c r="B23" s="11">
         <v>44039</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="16">
         <v>4</v>
       </c>
       <c r="D23" s="10" t="s">
@@ -2256,7 +2289,7 @@
       <c r="B24" s="11">
         <v>44040</v>
       </c>
-      <c r="C24" s="15"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="10" t="s">
         <v>68</v>
       </c>
@@ -2275,7 +2308,7 @@
       <c r="B25" s="11">
         <v>44041</v>
       </c>
-      <c r="C25" s="15"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="10" t="s">
         <v>68</v>
       </c>
@@ -2294,7 +2327,7 @@
       <c r="B26" s="11">
         <v>44042</v>
       </c>
-      <c r="C26" s="15"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="10" t="s">
         <v>68</v>
       </c>
@@ -2313,7 +2346,7 @@
       <c r="B27" s="11">
         <v>44043</v>
       </c>
-      <c r="C27" s="15"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="10" t="s">
         <v>68</v>
       </c>
@@ -2332,7 +2365,7 @@
       <c r="B28" s="11">
         <v>44046</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="16">
         <v>5</v>
       </c>
       <c r="D28" s="10" t="s">
@@ -2356,7 +2389,7 @@
       <c r="B29" s="11">
         <v>44047</v>
       </c>
-      <c r="C29" s="15"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="10" t="s">
         <v>68</v>
       </c>
@@ -2375,7 +2408,7 @@
       <c r="B30" s="11">
         <v>44048</v>
       </c>
-      <c r="C30" s="15"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="10" t="s">
         <v>68</v>
       </c>
@@ -2394,7 +2427,7 @@
       <c r="B31" s="11">
         <v>44049</v>
       </c>
-      <c r="C31" s="15"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="10" t="s">
         <v>68</v>
       </c>
@@ -2413,7 +2446,7 @@
       <c r="B32" s="11">
         <v>44050</v>
       </c>
-      <c r="C32" s="15"/>
+      <c r="C32" s="16"/>
       <c r="D32" s="10" t="s">
         <v>68</v>
       </c>
@@ -2432,7 +2465,7 @@
       <c r="B33" s="11">
         <v>44053</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="16">
         <v>6</v>
       </c>
       <c r="D33" s="10" t="s">
@@ -2453,7 +2486,7 @@
       <c r="B34" s="11">
         <v>44054</v>
       </c>
-      <c r="C34" s="15"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="10" t="s">
         <v>68</v>
       </c>
@@ -2475,7 +2508,7 @@
       <c r="B35" s="11">
         <v>44055</v>
       </c>
-      <c r="C35" s="15"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="10" t="s">
         <v>68</v>
       </c>
@@ -2497,7 +2530,7 @@
       <c r="B36" s="11">
         <v>44056</v>
       </c>
-      <c r="C36" s="15"/>
+      <c r="C36" s="16"/>
       <c r="D36" s="10" t="s">
         <v>68</v>
       </c>
@@ -2519,7 +2552,7 @@
       <c r="B37" s="11">
         <v>44057</v>
       </c>
-      <c r="C37" s="15"/>
+      <c r="C37" s="16"/>
       <c r="D37" s="10" t="s">
         <v>68</v>
       </c>
@@ -2541,7 +2574,7 @@
       <c r="B38" s="11">
         <v>44060</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="16">
         <v>7</v>
       </c>
       <c r="D38" s="10" t="s">
@@ -2565,7 +2598,7 @@
       <c r="B39" s="11">
         <v>44061</v>
       </c>
-      <c r="C39" s="15"/>
+      <c r="C39" s="16"/>
       <c r="D39" s="10" t="s">
         <v>73</v>
       </c>
@@ -2587,7 +2620,7 @@
       <c r="B40" s="11">
         <v>44062</v>
       </c>
-      <c r="C40" s="15"/>
+      <c r="C40" s="16"/>
       <c r="D40" s="10" t="s">
         <v>73</v>
       </c>
@@ -2609,7 +2642,7 @@
       <c r="B41" s="11">
         <v>44063</v>
       </c>
-      <c r="C41" s="15"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="10" t="s">
         <v>73</v>
       </c>
@@ -2631,7 +2664,7 @@
       <c r="B42" s="13">
         <v>44064</v>
       </c>
-      <c r="C42" s="15"/>
+      <c r="C42" s="16"/>
       <c r="D42" s="10" t="s">
         <v>73</v>
       </c>
@@ -2653,7 +2686,7 @@
       <c r="B43" s="11">
         <v>44067</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="16">
         <v>8</v>
       </c>
       <c r="D43" s="10" t="s">
@@ -2677,7 +2710,7 @@
       <c r="B44" s="11">
         <v>44068</v>
       </c>
-      <c r="C44" s="15"/>
+      <c r="C44" s="16"/>
       <c r="D44" s="10" t="s">
         <v>73</v>
       </c>
@@ -2699,7 +2732,7 @@
       <c r="B45" s="11">
         <v>44069</v>
       </c>
-      <c r="C45" s="15"/>
+      <c r="C45" s="16"/>
       <c r="D45" s="10" t="s">
         <v>73</v>
       </c>
@@ -2721,7 +2754,7 @@
       <c r="B46" s="11">
         <v>44070</v>
       </c>
-      <c r="C46" s="15"/>
+      <c r="C46" s="16"/>
       <c r="D46" s="10" t="s">
         <v>73</v>
       </c>
@@ -2743,7 +2776,7 @@
       <c r="B47" s="11">
         <v>44071</v>
       </c>
-      <c r="C47" s="15"/>
+      <c r="C47" s="16"/>
       <c r="D47" s="10" t="s">
         <v>73</v>
       </c>
@@ -2765,7 +2798,7 @@
       <c r="B48" s="11">
         <v>44074</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C48" s="16">
         <v>9</v>
       </c>
       <c r="D48" s="10" t="s">
@@ -2778,219 +2811,238 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>42</v>
       </c>
       <c r="B49" s="11">
         <v>44075</v>
       </c>
-      <c r="C49" s="15"/>
+      <c r="C49" s="16"/>
       <c r="D49" s="10" t="s">
         <v>73</v>
       </c>
       <c r="E49" s="10"/>
-    </row>
-    <row r="50" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F49"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>43</v>
       </c>
       <c r="B50" s="11">
         <v>44076</v>
       </c>
-      <c r="C50" s="15"/>
+      <c r="C50" s="16"/>
       <c r="D50" s="10" t="s">
         <v>73</v>
       </c>
       <c r="E50" s="10"/>
-    </row>
-    <row r="51" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F50"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>44</v>
       </c>
       <c r="B51" s="11">
         <v>44077</v>
       </c>
-      <c r="C51" s="15"/>
+      <c r="C51" s="16"/>
       <c r="D51" s="10" t="s">
         <v>73</v>
       </c>
       <c r="E51" s="10"/>
-    </row>
-    <row r="52" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F51"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>45</v>
       </c>
       <c r="B52" s="11">
         <v>44078</v>
       </c>
-      <c r="C52" s="15"/>
+      <c r="C52" s="16"/>
       <c r="D52" s="10" t="s">
         <v>73</v>
       </c>
       <c r="E52" s="10"/>
-    </row>
-    <row r="53" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F52"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>46</v>
       </c>
       <c r="B53" s="11">
         <v>44081</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53" s="16">
         <v>10</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>73</v>
       </c>
       <c r="E53" s="10"/>
-    </row>
-    <row r="54" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F53"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>47</v>
       </c>
       <c r="B54" s="11">
         <v>44082</v>
       </c>
-      <c r="C54" s="15"/>
+      <c r="C54" s="16"/>
       <c r="D54" s="10" t="s">
         <v>73</v>
       </c>
       <c r="E54" s="10"/>
-    </row>
-    <row r="55" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F54"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>48</v>
       </c>
       <c r="B55" s="11">
         <v>44083</v>
       </c>
-      <c r="C55" s="15"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="10" t="s">
         <v>73</v>
       </c>
       <c r="E55" s="10"/>
-    </row>
-    <row r="56" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F55"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>49</v>
       </c>
       <c r="B56" s="11">
         <v>44084</v>
       </c>
-      <c r="C56" s="15"/>
+      <c r="C56" s="16"/>
       <c r="D56" s="10" t="s">
         <v>73</v>
       </c>
       <c r="E56" s="10"/>
-    </row>
-    <row r="57" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F56"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>50</v>
       </c>
       <c r="B57" s="11">
         <v>44085</v>
       </c>
-      <c r="C57" s="15"/>
+      <c r="C57" s="16"/>
       <c r="D57" s="10" t="s">
         <v>73</v>
       </c>
       <c r="E57" s="10"/>
-    </row>
-    <row r="58" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F57"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>51</v>
       </c>
       <c r="B58" s="11">
         <v>44088</v>
       </c>
-      <c r="C58" s="15">
+      <c r="C58" s="16">
         <v>11</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>73</v>
       </c>
       <c r="E58" s="10"/>
-    </row>
-    <row r="59" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F58"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <v>52</v>
       </c>
       <c r="B59" s="11">
         <v>44089</v>
       </c>
-      <c r="C59" s="15"/>
+      <c r="C59" s="16"/>
       <c r="D59" s="10" t="s">
         <v>73</v>
       </c>
       <c r="E59" s="10"/>
-    </row>
-    <row r="60" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F59"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>53</v>
       </c>
       <c r="B60" s="11">
         <v>44090</v>
       </c>
-      <c r="C60" s="15"/>
+      <c r="C60" s="16"/>
       <c r="D60" s="10" t="s">
         <v>73</v>
       </c>
       <c r="E60" s="10"/>
-    </row>
-    <row r="61" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F60"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>54</v>
       </c>
       <c r="B61" s="11">
         <v>44091</v>
       </c>
-      <c r="C61" s="15"/>
+      <c r="C61" s="16"/>
       <c r="D61" s="10" t="s">
         <v>73</v>
       </c>
       <c r="E61" s="10"/>
-    </row>
-    <row r="62" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F61"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>55</v>
       </c>
       <c r="B62" s="11">
         <v>44092</v>
       </c>
-      <c r="C62" s="15"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="10" t="s">
         <v>73</v>
       </c>
       <c r="E62" s="10"/>
-    </row>
-    <row r="63" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F62"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>56</v>
       </c>
       <c r="B63" s="11">
         <v>44095</v>
       </c>
-      <c r="C63" s="15">
+      <c r="C63" s="16">
         <v>12</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>73</v>
       </c>
       <c r="E63" s="10"/>
-    </row>
-    <row r="64" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F63"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>57</v>
       </c>
       <c r="B64" s="11">
         <v>44096</v>
       </c>
-      <c r="C64" s="15"/>
+      <c r="C64" s="16"/>
       <c r="D64" s="10" t="s">
         <v>73</v>
       </c>
       <c r="E64" s="10"/>
+      <c r="F64"/>
+      <c r="G64" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
@@ -2999,11 +3051,14 @@
       <c r="B65" s="11">
         <v>44097</v>
       </c>
-      <c r="C65" s="15"/>
+      <c r="C65" s="16"/>
       <c r="D65" s="10" t="s">
         <v>73</v>
       </c>
       <c r="E65" s="10"/>
+      <c r="G65" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
@@ -3012,11 +3067,14 @@
       <c r="B66" s="11">
         <v>44098</v>
       </c>
-      <c r="C66" s="15"/>
+      <c r="C66" s="16"/>
       <c r="D66" s="10" t="s">
         <v>73</v>
       </c>
       <c r="E66" s="10"/>
+      <c r="G66" s="15">
+        <v>0.39583333333333331</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
@@ -3025,7 +3083,7 @@
       <c r="B67" s="13">
         <v>44099</v>
       </c>
-      <c r="C67" s="15"/>
+      <c r="C67" s="16"/>
       <c r="D67" s="10" t="s">
         <v>73</v>
       </c>
@@ -3038,7 +3096,7 @@
       <c r="B68" s="11">
         <v>44102</v>
       </c>
-      <c r="C68" s="15">
+      <c r="C68" s="16">
         <v>13</v>
       </c>
       <c r="D68" s="10" t="s">
@@ -3056,7 +3114,7 @@
       <c r="B69" s="11">
         <v>44103</v>
       </c>
-      <c r="C69" s="15"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="10" t="s">
         <v>74</v>
       </c>
@@ -3069,7 +3127,7 @@
       <c r="B70" s="11">
         <v>44104</v>
       </c>
-      <c r="C70" s="15"/>
+      <c r="C70" s="16"/>
       <c r="D70" s="10" t="s">
         <v>74</v>
       </c>
@@ -3082,7 +3140,7 @@
       <c r="B71" s="11">
         <v>44105</v>
       </c>
-      <c r="C71" s="15"/>
+      <c r="C71" s="16"/>
       <c r="D71" s="10" t="s">
         <v>74</v>
       </c>
@@ -3095,7 +3153,7 @@
       <c r="B72" s="11">
         <v>44106</v>
       </c>
-      <c r="C72" s="15"/>
+      <c r="C72" s="16"/>
       <c r="D72" s="10" t="s">
         <v>74</v>
       </c>
@@ -3108,7 +3166,7 @@
       <c r="B73" s="11">
         <v>44109</v>
       </c>
-      <c r="C73" s="15">
+      <c r="C73" s="16">
         <v>14</v>
       </c>
       <c r="D73" s="10" t="s">
@@ -3123,7 +3181,7 @@
       <c r="B74" s="11">
         <v>44110</v>
       </c>
-      <c r="C74" s="15"/>
+      <c r="C74" s="16"/>
       <c r="D74" s="10" t="s">
         <v>74</v>
       </c>
@@ -3136,7 +3194,7 @@
       <c r="B75" s="11">
         <v>44111</v>
       </c>
-      <c r="C75" s="15"/>
+      <c r="C75" s="16"/>
       <c r="D75" s="10" t="s">
         <v>74</v>
       </c>
@@ -3149,7 +3207,7 @@
       <c r="B76" s="11">
         <v>44112</v>
       </c>
-      <c r="C76" s="15"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="10" t="s">
         <v>74</v>
       </c>
@@ -3162,7 +3220,7 @@
       <c r="B77" s="11">
         <v>44113</v>
       </c>
-      <c r="C77" s="15"/>
+      <c r="C77" s="16"/>
       <c r="D77" s="10" t="s">
         <v>74</v>
       </c>
@@ -3175,7 +3233,7 @@
       <c r="B78" s="11">
         <v>44116</v>
       </c>
-      <c r="C78" s="15">
+      <c r="C78" s="16">
         <v>15</v>
       </c>
       <c r="D78" s="10" t="s">
@@ -3190,7 +3248,7 @@
       <c r="B79" s="11">
         <v>44117</v>
       </c>
-      <c r="C79" s="15"/>
+      <c r="C79" s="16"/>
       <c r="D79" s="10" t="s">
         <v>74</v>
       </c>
@@ -3203,7 +3261,7 @@
       <c r="B80" s="11">
         <v>44118</v>
       </c>
-      <c r="C80" s="15"/>
+      <c r="C80" s="16"/>
       <c r="D80" s="10" t="s">
         <v>74</v>
       </c>
@@ -3216,7 +3274,7 @@
       <c r="B81" s="11">
         <v>44119</v>
       </c>
-      <c r="C81" s="15"/>
+      <c r="C81" s="16"/>
       <c r="D81" s="10" t="s">
         <v>74</v>
       </c>
@@ -3229,7 +3287,7 @@
       <c r="B82" s="11">
         <v>44120</v>
       </c>
-      <c r="C82" s="15"/>
+      <c r="C82" s="16"/>
       <c r="D82" s="10" t="s">
         <v>74</v>
       </c>
@@ -3242,7 +3300,7 @@
       <c r="B83" s="11">
         <v>44123</v>
       </c>
-      <c r="C83" s="15">
+      <c r="C83" s="16">
         <v>16</v>
       </c>
       <c r="D83" s="10" t="s">
@@ -3257,7 +3315,7 @@
       <c r="B84" s="11">
         <v>44124</v>
       </c>
-      <c r="C84" s="15"/>
+      <c r="C84" s="16"/>
       <c r="D84" s="10" t="s">
         <v>74</v>
       </c>
@@ -3270,7 +3328,7 @@
       <c r="B85" s="11">
         <v>44125</v>
       </c>
-      <c r="C85" s="15"/>
+      <c r="C85" s="16"/>
       <c r="D85" s="10" t="s">
         <v>74</v>
       </c>
@@ -3283,7 +3341,7 @@
       <c r="B86" s="11">
         <v>44126</v>
       </c>
-      <c r="C86" s="15"/>
+      <c r="C86" s="16"/>
       <c r="D86" s="10" t="s">
         <v>74</v>
       </c>
@@ -3296,7 +3354,7 @@
       <c r="B87" s="11">
         <v>44127</v>
       </c>
-      <c r="C87" s="15"/>
+      <c r="C87" s="16"/>
       <c r="D87" s="10" t="s">
         <v>74</v>
       </c>
@@ -3309,7 +3367,7 @@
       <c r="B88" s="11">
         <v>44130</v>
       </c>
-      <c r="C88" s="15">
+      <c r="C88" s="16">
         <v>17</v>
       </c>
       <c r="D88" s="10" t="s">
@@ -3324,7 +3382,7 @@
       <c r="B89" s="11">
         <v>44131</v>
       </c>
-      <c r="C89" s="15"/>
+      <c r="C89" s="16"/>
       <c r="D89" s="10" t="s">
         <v>74</v>
       </c>
@@ -3337,7 +3395,7 @@
       <c r="B90" s="11">
         <v>44132</v>
       </c>
-      <c r="C90" s="15"/>
+      <c r="C90" s="16"/>
       <c r="D90" s="10" t="s">
         <v>74</v>
       </c>
@@ -3350,7 +3408,7 @@
       <c r="B91" s="11">
         <v>44133</v>
       </c>
-      <c r="C91" s="15"/>
+      <c r="C91" s="16"/>
       <c r="D91" s="10" t="s">
         <v>74</v>
       </c>
@@ -3363,7 +3421,7 @@
       <c r="B92" s="11">
         <v>44134</v>
       </c>
-      <c r="C92" s="15"/>
+      <c r="C92" s="16"/>
       <c r="D92" s="10" t="s">
         <v>74</v>
       </c>
@@ -3376,7 +3434,7 @@
       <c r="B93" s="11">
         <v>44137</v>
       </c>
-      <c r="C93" s="15">
+      <c r="C93" s="16">
         <v>18</v>
       </c>
       <c r="D93" s="10" t="s">
@@ -3391,7 +3449,7 @@
       <c r="B94" s="11">
         <v>44138</v>
       </c>
-      <c r="C94" s="15"/>
+      <c r="C94" s="16"/>
       <c r="D94" s="10" t="s">
         <v>74</v>
       </c>
@@ -3404,7 +3462,7 @@
       <c r="B95" s="11">
         <v>44139</v>
       </c>
-      <c r="C95" s="15"/>
+      <c r="C95" s="16"/>
       <c r="D95" s="10" t="s">
         <v>74</v>
       </c>
@@ -3417,7 +3475,7 @@
       <c r="B96" s="11">
         <v>44140</v>
       </c>
-      <c r="C96" s="15"/>
+      <c r="C96" s="16"/>
       <c r="D96" s="10" t="s">
         <v>74</v>
       </c>
@@ -3430,7 +3488,7 @@
       <c r="B97" s="11">
         <v>44141</v>
       </c>
-      <c r="C97" s="15"/>
+      <c r="C97" s="16"/>
       <c r="D97" s="10" t="s">
         <v>74</v>
       </c>
@@ -3443,7 +3501,7 @@
       <c r="B98" s="11">
         <v>44144</v>
       </c>
-      <c r="C98" s="15">
+      <c r="C98" s="16">
         <v>19</v>
       </c>
       <c r="D98" s="10" t="s">
@@ -3458,7 +3516,7 @@
       <c r="B99" s="11">
         <v>44145</v>
       </c>
-      <c r="C99" s="15"/>
+      <c r="C99" s="16"/>
       <c r="D99" s="10" t="s">
         <v>74</v>
       </c>
@@ -3471,7 +3529,7 @@
       <c r="B100" s="11">
         <v>44146</v>
       </c>
-      <c r="C100" s="15"/>
+      <c r="C100" s="16"/>
       <c r="D100" s="10" t="s">
         <v>74</v>
       </c>
@@ -3484,7 +3542,7 @@
       <c r="B101" s="11">
         <v>44147</v>
       </c>
-      <c r="C101" s="15"/>
+      <c r="C101" s="16"/>
       <c r="D101" s="10" t="s">
         <v>74</v>
       </c>
@@ -3497,7 +3555,7 @@
       <c r="B102" s="11">
         <v>44148</v>
       </c>
-      <c r="C102" s="15"/>
+      <c r="C102" s="16"/>
       <c r="D102" s="10" t="s">
         <v>74</v>
       </c>
@@ -3510,7 +3568,7 @@
       <c r="B103" s="11">
         <v>44151</v>
       </c>
-      <c r="C103" s="15">
+      <c r="C103" s="16">
         <v>20</v>
       </c>
       <c r="D103" s="10" t="s">
@@ -3525,7 +3583,7 @@
       <c r="B104" s="11">
         <v>44152</v>
       </c>
-      <c r="C104" s="15"/>
+      <c r="C104" s="16"/>
       <c r="D104" s="10" t="s">
         <v>74</v>
       </c>
@@ -3538,7 +3596,7 @@
       <c r="B105" s="11">
         <v>44153</v>
       </c>
-      <c r="C105" s="15"/>
+      <c r="C105" s="16"/>
       <c r="D105" s="10" t="s">
         <v>74</v>
       </c>
@@ -3551,7 +3609,7 @@
       <c r="B106" s="11">
         <v>44154</v>
       </c>
-      <c r="C106" s="15"/>
+      <c r="C106" s="16"/>
       <c r="D106" s="10" t="s">
         <v>74</v>
       </c>
@@ -3564,7 +3622,7 @@
       <c r="B107" s="11">
         <v>44155</v>
       </c>
-      <c r="C107" s="15"/>
+      <c r="C107" s="16"/>
       <c r="D107" s="10" t="s">
         <v>74</v>
       </c>
@@ -3577,7 +3635,7 @@
       <c r="B108" s="11">
         <v>44158</v>
       </c>
-      <c r="C108" s="15">
+      <c r="C108" s="16">
         <v>21</v>
       </c>
       <c r="D108" s="10" t="s">
@@ -3592,7 +3650,7 @@
       <c r="B109" s="11">
         <v>44159</v>
       </c>
-      <c r="C109" s="15"/>
+      <c r="C109" s="16"/>
       <c r="D109" s="10" t="s">
         <v>74</v>
       </c>
@@ -3605,7 +3663,7 @@
       <c r="B110" s="11">
         <v>44160</v>
       </c>
-      <c r="C110" s="15"/>
+      <c r="C110" s="16"/>
       <c r="D110" s="10" t="s">
         <v>74</v>
       </c>
@@ -3618,7 +3676,7 @@
       <c r="B111" s="11">
         <v>44161</v>
       </c>
-      <c r="C111" s="15"/>
+      <c r="C111" s="16"/>
       <c r="D111" s="10" t="s">
         <v>74</v>
       </c>
@@ -3631,7 +3689,7 @@
       <c r="B112" s="11">
         <v>44162</v>
       </c>
-      <c r="C112" s="15"/>
+      <c r="C112" s="16"/>
       <c r="D112" s="10" t="s">
         <v>74</v>
       </c>
@@ -3644,7 +3702,7 @@
       <c r="B113" s="11">
         <v>44165</v>
       </c>
-      <c r="C113" s="15">
+      <c r="C113" s="16">
         <v>22</v>
       </c>
       <c r="D113" s="10" t="s">
@@ -3659,7 +3717,7 @@
       <c r="B114" s="11">
         <v>44166</v>
       </c>
-      <c r="C114" s="15"/>
+      <c r="C114" s="16"/>
       <c r="D114" s="10" t="s">
         <v>74</v>
       </c>
@@ -3672,7 +3730,7 @@
       <c r="B115" s="11">
         <v>44167</v>
       </c>
-      <c r="C115" s="15"/>
+      <c r="C115" s="16"/>
       <c r="D115" s="10" t="s">
         <v>74</v>
       </c>
@@ -3685,7 +3743,7 @@
       <c r="B116" s="11">
         <v>44168</v>
       </c>
-      <c r="C116" s="15"/>
+      <c r="C116" s="16"/>
       <c r="D116" s="10" t="s">
         <v>74</v>
       </c>
@@ -3698,7 +3756,7 @@
       <c r="B117" s="11">
         <v>44169</v>
       </c>
-      <c r="C117" s="15"/>
+      <c r="C117" s="16"/>
       <c r="D117" s="10" t="s">
         <v>74</v>
       </c>
@@ -3711,7 +3769,7 @@
       <c r="B118" s="11">
         <v>44172</v>
       </c>
-      <c r="C118" s="15">
+      <c r="C118" s="16">
         <v>23</v>
       </c>
       <c r="D118" s="10" t="s">
@@ -3726,7 +3784,7 @@
       <c r="B119" s="11">
         <v>44173</v>
       </c>
-      <c r="C119" s="15"/>
+      <c r="C119" s="16"/>
       <c r="D119" s="10" t="s">
         <v>74</v>
       </c>
@@ -3739,7 +3797,7 @@
       <c r="B120" s="11">
         <v>44174</v>
       </c>
-      <c r="C120" s="15"/>
+      <c r="C120" s="16"/>
       <c r="D120" s="10" t="s">
         <v>74</v>
       </c>
@@ -3752,7 +3810,7 @@
       <c r="B121" s="11">
         <v>44175</v>
       </c>
-      <c r="C121" s="15"/>
+      <c r="C121" s="16"/>
       <c r="D121" s="10" t="s">
         <v>74</v>
       </c>
@@ -3765,7 +3823,7 @@
       <c r="B122" s="11">
         <v>44176</v>
       </c>
-      <c r="C122" s="15"/>
+      <c r="C122" s="16"/>
       <c r="D122" s="10" t="s">
         <v>74</v>
       </c>
@@ -3778,7 +3836,7 @@
       <c r="B123" s="11">
         <v>44179</v>
       </c>
-      <c r="C123" s="15">
+      <c r="C123" s="16">
         <v>24</v>
       </c>
       <c r="D123" s="10" t="s">
@@ -3793,7 +3851,7 @@
       <c r="B124" s="11">
         <v>44180</v>
       </c>
-      <c r="C124" s="15"/>
+      <c r="C124" s="16"/>
       <c r="D124" s="10" t="s">
         <v>74</v>
       </c>
@@ -3806,7 +3864,7 @@
       <c r="B125" s="11">
         <v>44181</v>
       </c>
-      <c r="C125" s="15"/>
+      <c r="C125" s="16"/>
       <c r="D125" s="10" t="s">
         <v>74</v>
       </c>
@@ -3819,7 +3877,7 @@
       <c r="B126" s="11">
         <v>44182</v>
       </c>
-      <c r="C126" s="15"/>
+      <c r="C126" s="16"/>
       <c r="D126" s="10" t="s">
         <v>74</v>
       </c>
@@ -3832,7 +3890,7 @@
       <c r="B127" s="11">
         <v>44183</v>
       </c>
-      <c r="C127" s="15"/>
+      <c r="C127" s="16"/>
       <c r="D127" s="10" t="s">
         <v>74</v>
       </c>
@@ -3877,7 +3935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
